--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-008 Accion de Mejoramiento UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-008 Accion de Mejoramiento UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC-FOR-08" sheetId="1" r:id="rId3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>GESTIÓN DE LA CALIDAD</t>
   </si>
@@ -31,6 +31,33 @@
     <t>ACCION DE MEJORAMIENTO U.M</t>
   </si>
   <si>
+    <t>SEGUIMIENTO:</t>
+  </si>
+  <si>
+    <t>CONTINUA ABIERTA</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>CERRADA</t>
+  </si>
+  <si>
+    <t>RESPONSABLE (firma y cargo)</t>
+  </si>
+  <si>
+    <t>EFICACIA:</t>
+  </si>
+  <si>
+    <t>LA ACCION FUE EFICAZ</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Versión:</t>
   </si>
   <si>
@@ -41,12 +68,6 @@
   </si>
   <si>
     <t>NOMBRE DEL PROCESO:</t>
-  </si>
-  <si>
-    <t>SEGUIMIENTO:</t>
-  </si>
-  <si>
-    <t>ACCIÓN DE MEJORAMIENTO</t>
   </si>
   <si>
     <t>RESPONSABLE INDICADOR:</t>
@@ -67,16 +88,7 @@
     <t>META DEL INDICADOR</t>
   </si>
   <si>
-    <t>CONTINUA ABIERTA</t>
-  </si>
-  <si>
     <t>TOMA DE DATOS:</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>CERRADA</t>
   </si>
   <si>
     <t>ACCION DE MEJORAMIENTO</t>
@@ -112,28 +124,13 @@
     <t xml:space="preserve">ACCIÓN No. </t>
   </si>
   <si>
-    <t>RESPONSABLE (firma y cargo)</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN DEL HALLAZGO:</t>
   </si>
   <si>
     <t>IDENTIFICADO POR  (nombre y cargo)</t>
   </si>
   <si>
-    <t>EFICACIA:</t>
-  </si>
-  <si>
     <t>ANÁLISIS DE CAUSAS:</t>
-  </si>
-  <si>
-    <t>LA ACCION FUE EFICAZ</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>PARTICIPANTES DEL ANÁLISIS:</t>
@@ -221,14 +218,16 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="64">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -236,48 +235,281 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <bottom/>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
       <bottom/>
     </border>
     <border>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -286,10 +518,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -297,43 +529,12 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -342,49 +543,28 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -415,260 +595,12 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -730,13 +662,20 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -744,22 +683,20 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -805,14 +742,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -872,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -884,280 +813,269 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="39" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="42" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="43" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="44" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="49" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="52" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="53" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="54" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="55" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="2" fontId="8" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="56" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="48" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="52" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="49" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="51" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="52" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="53" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="48" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="49" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="51" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="52" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="54" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="54" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="55" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="56" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="58" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="59" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="60" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="59" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="62" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="2" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="57" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="54" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="58" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="63" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="55" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="2" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="59" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="59" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="59" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="60" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="61" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="62" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="63" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="64" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="65" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="66" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="67" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="65" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="68" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="69" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="50" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="51" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1167,7 +1085,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1228,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4677,7 +4595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4714,261 +4632,259 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
+      <c r="H2" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
-        <v>6</v>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="42">
         <v>43560.0</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>7</v>
+      <c r="A5" s="46" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" ht="30.0" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="30.0" customHeight="1">
+      <c r="A7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="A8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="65"/>
-    </row>
-    <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-    </row>
-    <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="A10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="A13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" ht="30.0" customHeight="1">
+      <c r="A14" s="71" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="81" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" ht="30.0" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+    </row>
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="81" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="83" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="84"/>
-    </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="81" t="s">
+      <c r="H16" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="81" t="s">
+    </row>
+    <row r="17" ht="30.0" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="30.0" customHeight="1">
+      <c r="A18" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="87"/>
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="90"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="33"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="95"/>
@@ -5062,359 +4978,359 @@
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
-      <c r="A33" s="102" t="s">
-        <v>33</v>
+      <c r="A33" s="100" t="s">
+        <v>36</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="84"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="87"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="108" t="s">
-        <v>35</v>
+      <c r="A35" s="104" t="s">
+        <v>37</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="33"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="38"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="55"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
-      <c r="A38" s="109"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="38"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="38"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
-      <c r="A40" s="109"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="38"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
-      <c r="A41" s="110"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="112"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="108"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
-      <c r="A42" s="110"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="112"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
-      <c r="A43" s="110"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="108"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
+    </row>
+    <row r="45" ht="30.0" customHeight="1">
+      <c r="A45" s="110"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="108"/>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="113"/>
+    </row>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="114"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="103"/>
+    </row>
+    <row r="48" ht="30.0" customHeight="1">
+      <c r="A48" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="112"/>
-    </row>
-    <row r="45" ht="30.0" customHeight="1">
-      <c r="A45" s="114"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="112"/>
-    </row>
-    <row r="46" ht="30.0" customHeight="1">
-      <c r="A46" s="115"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="117"/>
-    </row>
-    <row r="47" ht="30.0" customHeight="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="106"/>
-    </row>
-    <row r="48" ht="30.0" customHeight="1">
-      <c r="A48" s="120" t="s">
+      <c r="B48" s="116"/>
+      <c r="C48" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122" t="s">
+      <c r="D48" s="118"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124" t="s">
+      <c r="H48" s="120"/>
+    </row>
+    <row r="49" ht="30.0" customHeight="1">
+      <c r="A49" s="121"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="55"/>
+    </row>
+    <row r="50" ht="30.0" customHeight="1">
+      <c r="A50" s="121"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="55"/>
+    </row>
+    <row r="51" ht="30.0" customHeight="1">
+      <c r="A51" s="121"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="55"/>
+    </row>
+    <row r="52" ht="30.0" customHeight="1">
+      <c r="A52" s="121"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="55"/>
+    </row>
+    <row r="53" ht="30.0" customHeight="1">
+      <c r="A53" s="121"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="55"/>
+    </row>
+    <row r="54" ht="30.0" customHeight="1">
+      <c r="A54" s="121"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="55"/>
+    </row>
+    <row r="55" ht="30.0" customHeight="1">
+      <c r="A55" s="121"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="55"/>
+    </row>
+    <row r="56" ht="30.0" customHeight="1">
+      <c r="A56" s="122"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" ht="30.0" customHeight="1">
+      <c r="A57" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="125"/>
-    </row>
-    <row r="49" ht="30.0" customHeight="1">
-      <c r="A49" s="126"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" ht="30.0" customHeight="1">
-      <c r="A50" s="126"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" ht="30.0" customHeight="1">
-      <c r="A51" s="126"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="126"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="38"/>
-    </row>
-    <row r="53" ht="30.0" customHeight="1">
-      <c r="A53" s="126"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="38"/>
-    </row>
-    <row r="54" ht="30.0" customHeight="1">
-      <c r="A54" s="126"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" ht="30.0" customHeight="1">
-      <c r="A55" s="126"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" ht="30.0" customHeight="1">
-      <c r="A56" s="127"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="62"/>
-    </row>
-    <row r="57" ht="30.0" customHeight="1">
-      <c r="A57" s="129" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="130">
+      <c r="B57" s="125">
         <v>43560.0</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="133"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="128"/>
     </row>
     <row r="58" ht="30.0" hidden="1" customHeight="1">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
     </row>
     <row r="59" ht="30.0" hidden="1" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
     </row>
     <row r="60" ht="30.0" hidden="1" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
     </row>
     <row r="61" ht="30.0" hidden="1" customHeight="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
     </row>
     <row r="62" ht="30.0" hidden="1" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
     </row>
     <row r="63" ht="30.0" hidden="1" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
     </row>
     <row r="64" ht="30.0" hidden="1" customHeight="1">
-      <c r="A64" s="134"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
     </row>
     <row r="65" ht="30.0" hidden="1" customHeight="1">
-      <c r="A65" s="134"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5459,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
@@ -5475,2558 +5391,2558 @@
     <row r="2" ht="12.75" customHeight="1"/>
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="19"/>
+      <c r="BL16" s="19"/>
+      <c r="BM16" s="19"/>
+      <c r="BN16" s="19"/>
+      <c r="BO16" s="19"/>
+      <c r="BP16" s="19"/>
+      <c r="BQ16" s="19"/>
+      <c r="BR16" s="19"/>
+      <c r="BS16" s="19"/>
+      <c r="BT16" s="19"/>
+      <c r="BU16" s="19"/>
+      <c r="BV16" s="19"/>
+      <c r="BW16" s="19"/>
+      <c r="BX16" s="19"/>
+      <c r="BY16" s="19"/>
+      <c r="BZ16" s="19"/>
+      <c r="CA16" s="19"/>
+      <c r="CB16" s="19"/>
+      <c r="CC16" s="19"/>
+      <c r="CD16" s="19"/>
+      <c r="CE16" s="19"/>
+      <c r="CF16" s="19"/>
+      <c r="CG16" s="19"/>
+      <c r="CH16" s="19"/>
+      <c r="CI16" s="19"/>
+      <c r="CJ16" s="19"/>
+      <c r="CK16" s="19"/>
+      <c r="CL16" s="19"/>
+      <c r="CM16" s="19"/>
+      <c r="CN16" s="19"/>
+      <c r="CO16" s="19"/>
+      <c r="CP16" s="19"/>
+      <c r="CQ16" s="19"/>
+      <c r="CR16" s="19"/>
+      <c r="CS16" s="19"/>
+      <c r="CT16" s="19"/>
+      <c r="CU16" s="19"/>
+      <c r="CV16" s="19"/>
+      <c r="CW16" s="19"/>
+      <c r="CX16" s="19"/>
+      <c r="CY16" s="19"/>
+      <c r="CZ16" s="19"/>
+      <c r="DA16" s="19"/>
+      <c r="DB16" s="19"/>
+      <c r="DC16" s="19"/>
+      <c r="DD16" s="19"/>
+      <c r="DE16" s="19"/>
+      <c r="DF16" s="19"/>
+      <c r="DG16" s="19"/>
+      <c r="DH16" s="19"/>
+      <c r="DI16" s="19"/>
+      <c r="DJ16" s="19"/>
+      <c r="DK16" s="19"/>
+      <c r="DL16" s="19"/>
+      <c r="DM16" s="19"/>
+      <c r="DN16" s="19"/>
+      <c r="DO16" s="19"/>
+      <c r="DP16" s="19"/>
+      <c r="DQ16" s="19"/>
+      <c r="DR16" s="19"/>
+      <c r="DS16" s="19"/>
+      <c r="DT16" s="19"/>
+      <c r="DU16" s="19"/>
+      <c r="DV16" s="19"/>
+      <c r="DW16" s="19"/>
+      <c r="DX16" s="19"/>
+      <c r="DY16" s="19"/>
+      <c r="DZ16" s="19"/>
+      <c r="EA16" s="19"/>
+      <c r="EB16" s="19"/>
+      <c r="EC16" s="19"/>
+      <c r="ED16" s="19"/>
+      <c r="EE16" s="19"/>
+      <c r="EF16" s="19"/>
+      <c r="EG16" s="19"/>
+      <c r="EH16" s="19"/>
+      <c r="EI16" s="19"/>
+      <c r="EJ16" s="19"/>
+      <c r="EK16" s="19"/>
+      <c r="EL16" s="19"/>
+      <c r="EM16" s="19"/>
+      <c r="EN16" s="19"/>
+      <c r="EO16" s="19"/>
+      <c r="EP16" s="19"/>
+      <c r="EQ16" s="19"/>
+      <c r="ER16" s="19"/>
+      <c r="ES16" s="19"/>
+      <c r="ET16" s="19"/>
+      <c r="EU16" s="19"/>
+      <c r="EV16" s="19"/>
+      <c r="EW16" s="19"/>
+      <c r="EX16" s="19"/>
+      <c r="EY16" s="19"/>
+      <c r="EZ16" s="19"/>
+      <c r="FA16" s="19"/>
+      <c r="FB16" s="19"/>
+      <c r="FC16" s="19"/>
+      <c r="FD16" s="19"/>
+      <c r="FE16" s="19"/>
+      <c r="FF16" s="19"/>
+      <c r="FG16" s="19"/>
+      <c r="FH16" s="19"/>
+      <c r="FI16" s="19"/>
+      <c r="FJ16" s="19"/>
+      <c r="FK16" s="19"/>
+      <c r="FL16" s="19"/>
+      <c r="FM16" s="19"/>
+      <c r="FN16" s="19"/>
+      <c r="FO16" s="19"/>
+      <c r="FP16" s="19"/>
+      <c r="FQ16" s="19"/>
+      <c r="FR16" s="19"/>
+      <c r="FS16" s="19"/>
+      <c r="FT16" s="19"/>
+      <c r="FU16" s="19"/>
+      <c r="FV16" s="19"/>
+      <c r="FW16" s="19"/>
+      <c r="FX16" s="19"/>
+      <c r="FY16" s="19"/>
+      <c r="FZ16" s="19"/>
+      <c r="GA16" s="19"/>
+      <c r="GB16" s="19"/>
+      <c r="GC16" s="19"/>
+      <c r="GD16" s="19"/>
+      <c r="GE16" s="19"/>
+      <c r="GF16" s="19"/>
+      <c r="GG16" s="19"/>
+      <c r="GH16" s="19"/>
+      <c r="GI16" s="19"/>
+      <c r="GJ16" s="19"/>
+      <c r="GK16" s="19"/>
+      <c r="GL16" s="19"/>
+      <c r="GM16" s="19"/>
+      <c r="GN16" s="19"/>
+      <c r="GO16" s="19"/>
+      <c r="GP16" s="19"/>
+      <c r="GQ16" s="19"/>
+      <c r="GR16" s="19"/>
+      <c r="GS16" s="19"/>
+      <c r="GT16" s="19"/>
+      <c r="GU16" s="19"/>
+      <c r="GV16" s="19"/>
+      <c r="GW16" s="19"/>
+      <c r="GX16" s="19"/>
+      <c r="GY16" s="19"/>
+      <c r="GZ16" s="19"/>
+      <c r="HA16" s="19"/>
+      <c r="HB16" s="19"/>
+      <c r="HC16" s="19"/>
+      <c r="HD16" s="19"/>
+      <c r="HE16" s="19"/>
+      <c r="HF16" s="19"/>
+      <c r="HG16" s="19"/>
+      <c r="HH16" s="19"/>
+      <c r="HI16" s="19"/>
+      <c r="HJ16" s="19"/>
+      <c r="HK16" s="19"/>
+      <c r="HL16" s="19"/>
+      <c r="HM16" s="19"/>
+      <c r="HN16" s="19"/>
+      <c r="HO16" s="19"/>
+      <c r="HP16" s="19"/>
+      <c r="HQ16" s="19"/>
+      <c r="HR16" s="19"/>
+      <c r="HS16" s="19"/>
+      <c r="HT16" s="19"/>
+      <c r="HU16" s="19"/>
+      <c r="HV16" s="19"/>
+      <c r="HW16" s="19"/>
+      <c r="HX16" s="19"/>
+      <c r="HY16" s="19"/>
+      <c r="HZ16" s="19"/>
+      <c r="IA16" s="19"/>
+      <c r="IB16" s="19"/>
+      <c r="IC16" s="19"/>
+      <c r="ID16" s="19"/>
+      <c r="IE16" s="19"/>
+      <c r="IF16" s="19"/>
+      <c r="IG16" s="19"/>
+      <c r="IH16" s="19"/>
+      <c r="II16" s="19"/>
+      <c r="IJ16" s="19"/>
+      <c r="IK16" s="19"/>
+      <c r="IL16" s="19"/>
+      <c r="IM16" s="19"/>
+      <c r="IN16" s="19"/>
+      <c r="IO16" s="19"/>
+      <c r="IP16" s="19"/>
+      <c r="IQ16" s="19"/>
+      <c r="IR16" s="19"/>
+      <c r="IS16" s="19"/>
+      <c r="IT16" s="19"/>
+      <c r="IU16" s="19"/>
+      <c r="IV16" s="19"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="27"/>
+      <c r="BJ17" s="27"/>
+      <c r="BK17" s="27"/>
+      <c r="BL17" s="27"/>
+      <c r="BM17" s="27"/>
+      <c r="BN17" s="27"/>
+      <c r="BO17" s="27"/>
+      <c r="BP17" s="27"/>
+      <c r="BQ17" s="27"/>
+      <c r="BR17" s="27"/>
+      <c r="BS17" s="27"/>
+      <c r="BT17" s="27"/>
+      <c r="BU17" s="27"/>
+      <c r="BV17" s="27"/>
+      <c r="BW17" s="27"/>
+      <c r="BX17" s="27"/>
+      <c r="BY17" s="27"/>
+      <c r="BZ17" s="27"/>
+      <c r="CA17" s="27"/>
+      <c r="CB17" s="27"/>
+      <c r="CC17" s="27"/>
+      <c r="CD17" s="27"/>
+      <c r="CE17" s="27"/>
+      <c r="CF17" s="27"/>
+      <c r="CG17" s="27"/>
+      <c r="CH17" s="27"/>
+      <c r="CI17" s="27"/>
+      <c r="CJ17" s="27"/>
+      <c r="CK17" s="27"/>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="27"/>
+      <c r="CN17" s="27"/>
+      <c r="CO17" s="27"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="27"/>
+      <c r="CT17" s="27"/>
+      <c r="CU17" s="27"/>
+      <c r="CV17" s="27"/>
+      <c r="CW17" s="27"/>
+      <c r="CX17" s="27"/>
+      <c r="CY17" s="27"/>
+      <c r="CZ17" s="27"/>
+      <c r="DA17" s="27"/>
+      <c r="DB17" s="27"/>
+      <c r="DC17" s="27"/>
+      <c r="DD17" s="27"/>
+      <c r="DE17" s="27"/>
+      <c r="DF17" s="27"/>
+      <c r="DG17" s="27"/>
+      <c r="DH17" s="27"/>
+      <c r="DI17" s="27"/>
+      <c r="DJ17" s="27"/>
+      <c r="DK17" s="27"/>
+      <c r="DL17" s="27"/>
+      <c r="DM17" s="27"/>
+      <c r="DN17" s="27"/>
+      <c r="DO17" s="27"/>
+      <c r="DP17" s="27"/>
+      <c r="DQ17" s="27"/>
+      <c r="DR17" s="27"/>
+      <c r="DS17" s="27"/>
+      <c r="DT17" s="27"/>
+      <c r="DU17" s="27"/>
+      <c r="DV17" s="27"/>
+      <c r="DW17" s="27"/>
+      <c r="DX17" s="27"/>
+      <c r="DY17" s="27"/>
+      <c r="DZ17" s="27"/>
+      <c r="EA17" s="27"/>
+      <c r="EB17" s="27"/>
+      <c r="EC17" s="27"/>
+      <c r="ED17" s="27"/>
+      <c r="EE17" s="27"/>
+      <c r="EF17" s="27"/>
+      <c r="EG17" s="27"/>
+      <c r="EH17" s="27"/>
+      <c r="EI17" s="27"/>
+      <c r="EJ17" s="27"/>
+      <c r="EK17" s="27"/>
+      <c r="EL17" s="27"/>
+      <c r="EM17" s="27"/>
+      <c r="EN17" s="27"/>
+      <c r="EO17" s="27"/>
+      <c r="EP17" s="27"/>
+      <c r="EQ17" s="27"/>
+      <c r="ER17" s="27"/>
+      <c r="ES17" s="27"/>
+      <c r="ET17" s="27"/>
+      <c r="EU17" s="27"/>
+      <c r="EV17" s="27"/>
+      <c r="EW17" s="27"/>
+      <c r="EX17" s="27"/>
+      <c r="EY17" s="27"/>
+      <c r="EZ17" s="27"/>
+      <c r="FA17" s="27"/>
+      <c r="FB17" s="27"/>
+      <c r="FC17" s="27"/>
+      <c r="FD17" s="27"/>
+      <c r="FE17" s="27"/>
+      <c r="FF17" s="27"/>
+      <c r="FG17" s="27"/>
+      <c r="FH17" s="27"/>
+      <c r="FI17" s="27"/>
+      <c r="FJ17" s="27"/>
+      <c r="FK17" s="27"/>
+      <c r="FL17" s="27"/>
+      <c r="FM17" s="27"/>
+      <c r="FN17" s="27"/>
+      <c r="FO17" s="27"/>
+      <c r="FP17" s="27"/>
+      <c r="FQ17" s="27"/>
+      <c r="FR17" s="27"/>
+      <c r="FS17" s="27"/>
+      <c r="FT17" s="27"/>
+      <c r="FU17" s="27"/>
+      <c r="FV17" s="27"/>
+      <c r="FW17" s="27"/>
+      <c r="FX17" s="27"/>
+      <c r="FY17" s="27"/>
+      <c r="FZ17" s="27"/>
+      <c r="GA17" s="27"/>
+      <c r="GB17" s="27"/>
+      <c r="GC17" s="27"/>
+      <c r="GD17" s="27"/>
+      <c r="GE17" s="27"/>
+      <c r="GF17" s="27"/>
+      <c r="GG17" s="27"/>
+      <c r="GH17" s="27"/>
+      <c r="GI17" s="27"/>
+      <c r="GJ17" s="27"/>
+      <c r="GK17" s="27"/>
+      <c r="GL17" s="27"/>
+      <c r="GM17" s="27"/>
+      <c r="GN17" s="27"/>
+      <c r="GO17" s="27"/>
+      <c r="GP17" s="27"/>
+      <c r="GQ17" s="27"/>
+      <c r="GR17" s="27"/>
+      <c r="GS17" s="27"/>
+      <c r="GT17" s="27"/>
+      <c r="GU17" s="27"/>
+      <c r="GV17" s="27"/>
+      <c r="GW17" s="27"/>
+      <c r="GX17" s="27"/>
+      <c r="GY17" s="27"/>
+      <c r="GZ17" s="27"/>
+      <c r="HA17" s="27"/>
+      <c r="HB17" s="27"/>
+      <c r="HC17" s="27"/>
+      <c r="HD17" s="27"/>
+      <c r="HE17" s="27"/>
+      <c r="HF17" s="27"/>
+      <c r="HG17" s="27"/>
+      <c r="HH17" s="27"/>
+      <c r="HI17" s="27"/>
+      <c r="HJ17" s="27"/>
+      <c r="HK17" s="27"/>
+      <c r="HL17" s="27"/>
+      <c r="HM17" s="27"/>
+      <c r="HN17" s="27"/>
+      <c r="HO17" s="27"/>
+      <c r="HP17" s="27"/>
+      <c r="HQ17" s="27"/>
+      <c r="HR17" s="27"/>
+      <c r="HS17" s="27"/>
+      <c r="HT17" s="27"/>
+      <c r="HU17" s="27"/>
+      <c r="HV17" s="27"/>
+      <c r="HW17" s="27"/>
+      <c r="HX17" s="27"/>
+      <c r="HY17" s="27"/>
+      <c r="HZ17" s="27"/>
+      <c r="IA17" s="27"/>
+      <c r="IB17" s="27"/>
+      <c r="IC17" s="27"/>
+      <c r="ID17" s="27"/>
+      <c r="IE17" s="27"/>
+      <c r="IF17" s="27"/>
+      <c r="IG17" s="27"/>
+      <c r="IH17" s="27"/>
+      <c r="II17" s="27"/>
+      <c r="IJ17" s="27"/>
+      <c r="IK17" s="27"/>
+      <c r="IL17" s="27"/>
+      <c r="IM17" s="27"/>
+      <c r="IN17" s="27"/>
+      <c r="IO17" s="27"/>
+      <c r="IP17" s="27"/>
+      <c r="IQ17" s="27"/>
+      <c r="IR17" s="27"/>
+      <c r="IS17" s="27"/>
+      <c r="IT17" s="27"/>
+      <c r="IU17" s="27"/>
+      <c r="IV17" s="27"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="27"/>
+      <c r="BE18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="27"/>
+      <c r="BL18" s="27"/>
+      <c r="BM18" s="27"/>
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="27"/>
+      <c r="BS18" s="27"/>
+      <c r="BT18" s="27"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="27"/>
+      <c r="BZ18" s="27"/>
+      <c r="CA18" s="27"/>
+      <c r="CB18" s="27"/>
+      <c r="CC18" s="27"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
+      <c r="CF18" s="27"/>
+      <c r="CG18" s="27"/>
+      <c r="CH18" s="27"/>
+      <c r="CI18" s="27"/>
+      <c r="CJ18" s="27"/>
+      <c r="CK18" s="27"/>
+      <c r="CL18" s="27"/>
+      <c r="CM18" s="27"/>
+      <c r="CN18" s="27"/>
+      <c r="CO18" s="27"/>
+      <c r="CP18" s="27"/>
+      <c r="CQ18" s="27"/>
+      <c r="CR18" s="27"/>
+      <c r="CS18" s="27"/>
+      <c r="CT18" s="27"/>
+      <c r="CU18" s="27"/>
+      <c r="CV18" s="27"/>
+      <c r="CW18" s="27"/>
+      <c r="CX18" s="27"/>
+      <c r="CY18" s="27"/>
+      <c r="CZ18" s="27"/>
+      <c r="DA18" s="27"/>
+      <c r="DB18" s="27"/>
+      <c r="DC18" s="27"/>
+      <c r="DD18" s="27"/>
+      <c r="DE18" s="27"/>
+      <c r="DF18" s="27"/>
+      <c r="DG18" s="27"/>
+      <c r="DH18" s="27"/>
+      <c r="DI18" s="27"/>
+      <c r="DJ18" s="27"/>
+      <c r="DK18" s="27"/>
+      <c r="DL18" s="27"/>
+      <c r="DM18" s="27"/>
+      <c r="DN18" s="27"/>
+      <c r="DO18" s="27"/>
+      <c r="DP18" s="27"/>
+      <c r="DQ18" s="27"/>
+      <c r="DR18" s="27"/>
+      <c r="DS18" s="27"/>
+      <c r="DT18" s="27"/>
+      <c r="DU18" s="27"/>
+      <c r="DV18" s="27"/>
+      <c r="DW18" s="27"/>
+      <c r="DX18" s="27"/>
+      <c r="DY18" s="27"/>
+      <c r="DZ18" s="27"/>
+      <c r="EA18" s="27"/>
+      <c r="EB18" s="27"/>
+      <c r="EC18" s="27"/>
+      <c r="ED18" s="27"/>
+      <c r="EE18" s="27"/>
+      <c r="EF18" s="27"/>
+      <c r="EG18" s="27"/>
+      <c r="EH18" s="27"/>
+      <c r="EI18" s="27"/>
+      <c r="EJ18" s="27"/>
+      <c r="EK18" s="27"/>
+      <c r="EL18" s="27"/>
+      <c r="EM18" s="27"/>
+      <c r="EN18" s="27"/>
+      <c r="EO18" s="27"/>
+      <c r="EP18" s="27"/>
+      <c r="EQ18" s="27"/>
+      <c r="ER18" s="27"/>
+      <c r="ES18" s="27"/>
+      <c r="ET18" s="27"/>
+      <c r="EU18" s="27"/>
+      <c r="EV18" s="27"/>
+      <c r="EW18" s="27"/>
+      <c r="EX18" s="27"/>
+      <c r="EY18" s="27"/>
+      <c r="EZ18" s="27"/>
+      <c r="FA18" s="27"/>
+      <c r="FB18" s="27"/>
+      <c r="FC18" s="27"/>
+      <c r="FD18" s="27"/>
+      <c r="FE18" s="27"/>
+      <c r="FF18" s="27"/>
+      <c r="FG18" s="27"/>
+      <c r="FH18" s="27"/>
+      <c r="FI18" s="27"/>
+      <c r="FJ18" s="27"/>
+      <c r="FK18" s="27"/>
+      <c r="FL18" s="27"/>
+      <c r="FM18" s="27"/>
+      <c r="FN18" s="27"/>
+      <c r="FO18" s="27"/>
+      <c r="FP18" s="27"/>
+      <c r="FQ18" s="27"/>
+      <c r="FR18" s="27"/>
+      <c r="FS18" s="27"/>
+      <c r="FT18" s="27"/>
+      <c r="FU18" s="27"/>
+      <c r="FV18" s="27"/>
+      <c r="FW18" s="27"/>
+      <c r="FX18" s="27"/>
+      <c r="FY18" s="27"/>
+      <c r="FZ18" s="27"/>
+      <c r="GA18" s="27"/>
+      <c r="GB18" s="27"/>
+      <c r="GC18" s="27"/>
+      <c r="GD18" s="27"/>
+      <c r="GE18" s="27"/>
+      <c r="GF18" s="27"/>
+      <c r="GG18" s="27"/>
+      <c r="GH18" s="27"/>
+      <c r="GI18" s="27"/>
+      <c r="GJ18" s="27"/>
+      <c r="GK18" s="27"/>
+      <c r="GL18" s="27"/>
+      <c r="GM18" s="27"/>
+      <c r="GN18" s="27"/>
+      <c r="GO18" s="27"/>
+      <c r="GP18" s="27"/>
+      <c r="GQ18" s="27"/>
+      <c r="GR18" s="27"/>
+      <c r="GS18" s="27"/>
+      <c r="GT18" s="27"/>
+      <c r="GU18" s="27"/>
+      <c r="GV18" s="27"/>
+      <c r="GW18" s="27"/>
+      <c r="GX18" s="27"/>
+      <c r="GY18" s="27"/>
+      <c r="GZ18" s="27"/>
+      <c r="HA18" s="27"/>
+      <c r="HB18" s="27"/>
+      <c r="HC18" s="27"/>
+      <c r="HD18" s="27"/>
+      <c r="HE18" s="27"/>
+      <c r="HF18" s="27"/>
+      <c r="HG18" s="27"/>
+      <c r="HH18" s="27"/>
+      <c r="HI18" s="27"/>
+      <c r="HJ18" s="27"/>
+      <c r="HK18" s="27"/>
+      <c r="HL18" s="27"/>
+      <c r="HM18" s="27"/>
+      <c r="HN18" s="27"/>
+      <c r="HO18" s="27"/>
+      <c r="HP18" s="27"/>
+      <c r="HQ18" s="27"/>
+      <c r="HR18" s="27"/>
+      <c r="HS18" s="27"/>
+      <c r="HT18" s="27"/>
+      <c r="HU18" s="27"/>
+      <c r="HV18" s="27"/>
+      <c r="HW18" s="27"/>
+      <c r="HX18" s="27"/>
+      <c r="HY18" s="27"/>
+      <c r="HZ18" s="27"/>
+      <c r="IA18" s="27"/>
+      <c r="IB18" s="27"/>
+      <c r="IC18" s="27"/>
+      <c r="ID18" s="27"/>
+      <c r="IE18" s="27"/>
+      <c r="IF18" s="27"/>
+      <c r="IG18" s="27"/>
+      <c r="IH18" s="27"/>
+      <c r="II18" s="27"/>
+      <c r="IJ18" s="27"/>
+      <c r="IK18" s="27"/>
+      <c r="IL18" s="27"/>
+      <c r="IM18" s="27"/>
+      <c r="IN18" s="27"/>
+      <c r="IO18" s="27"/>
+      <c r="IP18" s="27"/>
+      <c r="IQ18" s="27"/>
+      <c r="IR18" s="27"/>
+      <c r="IS18" s="27"/>
+      <c r="IT18" s="27"/>
+      <c r="IU18" s="27"/>
+      <c r="IV18" s="27"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="27"/>
+      <c r="BJ19" s="27"/>
+      <c r="BK19" s="27"/>
+      <c r="BL19" s="27"/>
+      <c r="BM19" s="27"/>
+      <c r="BN19" s="27"/>
+      <c r="BO19" s="27"/>
+      <c r="BP19" s="27"/>
+      <c r="BQ19" s="27"/>
+      <c r="BR19" s="27"/>
+      <c r="BS19" s="27"/>
+      <c r="BT19" s="27"/>
+      <c r="BU19" s="27"/>
+      <c r="BV19" s="27"/>
+      <c r="BW19" s="27"/>
+      <c r="BX19" s="27"/>
+      <c r="BY19" s="27"/>
+      <c r="BZ19" s="27"/>
+      <c r="CA19" s="27"/>
+      <c r="CB19" s="27"/>
+      <c r="CC19" s="27"/>
+      <c r="CD19" s="27"/>
+      <c r="CE19" s="27"/>
+      <c r="CF19" s="27"/>
+      <c r="CG19" s="27"/>
+      <c r="CH19" s="27"/>
+      <c r="CI19" s="27"/>
+      <c r="CJ19" s="27"/>
+      <c r="CK19" s="27"/>
+      <c r="CL19" s="27"/>
+      <c r="CM19" s="27"/>
+      <c r="CN19" s="27"/>
+      <c r="CO19" s="27"/>
+      <c r="CP19" s="27"/>
+      <c r="CQ19" s="27"/>
+      <c r="CR19" s="27"/>
+      <c r="CS19" s="27"/>
+      <c r="CT19" s="27"/>
+      <c r="CU19" s="27"/>
+      <c r="CV19" s="27"/>
+      <c r="CW19" s="27"/>
+      <c r="CX19" s="27"/>
+      <c r="CY19" s="27"/>
+      <c r="CZ19" s="27"/>
+      <c r="DA19" s="27"/>
+      <c r="DB19" s="27"/>
+      <c r="DC19" s="27"/>
+      <c r="DD19" s="27"/>
+      <c r="DE19" s="27"/>
+      <c r="DF19" s="27"/>
+      <c r="DG19" s="27"/>
+      <c r="DH19" s="27"/>
+      <c r="DI19" s="27"/>
+      <c r="DJ19" s="27"/>
+      <c r="DK19" s="27"/>
+      <c r="DL19" s="27"/>
+      <c r="DM19" s="27"/>
+      <c r="DN19" s="27"/>
+      <c r="DO19" s="27"/>
+      <c r="DP19" s="27"/>
+      <c r="DQ19" s="27"/>
+      <c r="DR19" s="27"/>
+      <c r="DS19" s="27"/>
+      <c r="DT19" s="27"/>
+      <c r="DU19" s="27"/>
+      <c r="DV19" s="27"/>
+      <c r="DW19" s="27"/>
+      <c r="DX19" s="27"/>
+      <c r="DY19" s="27"/>
+      <c r="DZ19" s="27"/>
+      <c r="EA19" s="27"/>
+      <c r="EB19" s="27"/>
+      <c r="EC19" s="27"/>
+      <c r="ED19" s="27"/>
+      <c r="EE19" s="27"/>
+      <c r="EF19" s="27"/>
+      <c r="EG19" s="27"/>
+      <c r="EH19" s="27"/>
+      <c r="EI19" s="27"/>
+      <c r="EJ19" s="27"/>
+      <c r="EK19" s="27"/>
+      <c r="EL19" s="27"/>
+      <c r="EM19" s="27"/>
+      <c r="EN19" s="27"/>
+      <c r="EO19" s="27"/>
+      <c r="EP19" s="27"/>
+      <c r="EQ19" s="27"/>
+      <c r="ER19" s="27"/>
+      <c r="ES19" s="27"/>
+      <c r="ET19" s="27"/>
+      <c r="EU19" s="27"/>
+      <c r="EV19" s="27"/>
+      <c r="EW19" s="27"/>
+      <c r="EX19" s="27"/>
+      <c r="EY19" s="27"/>
+      <c r="EZ19" s="27"/>
+      <c r="FA19" s="27"/>
+      <c r="FB19" s="27"/>
+      <c r="FC19" s="27"/>
+      <c r="FD19" s="27"/>
+      <c r="FE19" s="27"/>
+      <c r="FF19" s="27"/>
+      <c r="FG19" s="27"/>
+      <c r="FH19" s="27"/>
+      <c r="FI19" s="27"/>
+      <c r="FJ19" s="27"/>
+      <c r="FK19" s="27"/>
+      <c r="FL19" s="27"/>
+      <c r="FM19" s="27"/>
+      <c r="FN19" s="27"/>
+      <c r="FO19" s="27"/>
+      <c r="FP19" s="27"/>
+      <c r="FQ19" s="27"/>
+      <c r="FR19" s="27"/>
+      <c r="FS19" s="27"/>
+      <c r="FT19" s="27"/>
+      <c r="FU19" s="27"/>
+      <c r="FV19" s="27"/>
+      <c r="FW19" s="27"/>
+      <c r="FX19" s="27"/>
+      <c r="FY19" s="27"/>
+      <c r="FZ19" s="27"/>
+      <c r="GA19" s="27"/>
+      <c r="GB19" s="27"/>
+      <c r="GC19" s="27"/>
+      <c r="GD19" s="27"/>
+      <c r="GE19" s="27"/>
+      <c r="GF19" s="27"/>
+      <c r="GG19" s="27"/>
+      <c r="GH19" s="27"/>
+      <c r="GI19" s="27"/>
+      <c r="GJ19" s="27"/>
+      <c r="GK19" s="27"/>
+      <c r="GL19" s="27"/>
+      <c r="GM19" s="27"/>
+      <c r="GN19" s="27"/>
+      <c r="GO19" s="27"/>
+      <c r="GP19" s="27"/>
+      <c r="GQ19" s="27"/>
+      <c r="GR19" s="27"/>
+      <c r="GS19" s="27"/>
+      <c r="GT19" s="27"/>
+      <c r="GU19" s="27"/>
+      <c r="GV19" s="27"/>
+      <c r="GW19" s="27"/>
+      <c r="GX19" s="27"/>
+      <c r="GY19" s="27"/>
+      <c r="GZ19" s="27"/>
+      <c r="HA19" s="27"/>
+      <c r="HB19" s="27"/>
+      <c r="HC19" s="27"/>
+      <c r="HD19" s="27"/>
+      <c r="HE19" s="27"/>
+      <c r="HF19" s="27"/>
+      <c r="HG19" s="27"/>
+      <c r="HH19" s="27"/>
+      <c r="HI19" s="27"/>
+      <c r="HJ19" s="27"/>
+      <c r="HK19" s="27"/>
+      <c r="HL19" s="27"/>
+      <c r="HM19" s="27"/>
+      <c r="HN19" s="27"/>
+      <c r="HO19" s="27"/>
+      <c r="HP19" s="27"/>
+      <c r="HQ19" s="27"/>
+      <c r="HR19" s="27"/>
+      <c r="HS19" s="27"/>
+      <c r="HT19" s="27"/>
+      <c r="HU19" s="27"/>
+      <c r="HV19" s="27"/>
+      <c r="HW19" s="27"/>
+      <c r="HX19" s="27"/>
+      <c r="HY19" s="27"/>
+      <c r="HZ19" s="27"/>
+      <c r="IA19" s="27"/>
+      <c r="IB19" s="27"/>
+      <c r="IC19" s="27"/>
+      <c r="ID19" s="27"/>
+      <c r="IE19" s="27"/>
+      <c r="IF19" s="27"/>
+      <c r="IG19" s="27"/>
+      <c r="IH19" s="27"/>
+      <c r="II19" s="27"/>
+      <c r="IJ19" s="27"/>
+      <c r="IK19" s="27"/>
+      <c r="IL19" s="27"/>
+      <c r="IM19" s="27"/>
+      <c r="IN19" s="27"/>
+      <c r="IO19" s="27"/>
+      <c r="IP19" s="27"/>
+      <c r="IQ19" s="27"/>
+      <c r="IR19" s="27"/>
+      <c r="IS19" s="27"/>
+      <c r="IT19" s="27"/>
+      <c r="IU19" s="27"/>
+      <c r="IV19" s="27"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="27"/>
+      <c r="BJ20" s="27"/>
+      <c r="BK20" s="27"/>
+      <c r="BL20" s="27"/>
+      <c r="BM20" s="27"/>
+      <c r="BN20" s="27"/>
+      <c r="BO20" s="27"/>
+      <c r="BP20" s="27"/>
+      <c r="BQ20" s="27"/>
+      <c r="BR20" s="27"/>
+      <c r="BS20" s="27"/>
+      <c r="BT20" s="27"/>
+      <c r="BU20" s="27"/>
+      <c r="BV20" s="27"/>
+      <c r="BW20" s="27"/>
+      <c r="BX20" s="27"/>
+      <c r="BY20" s="27"/>
+      <c r="BZ20" s="27"/>
+      <c r="CA20" s="27"/>
+      <c r="CB20" s="27"/>
+      <c r="CC20" s="27"/>
+      <c r="CD20" s="27"/>
+      <c r="CE20" s="27"/>
+      <c r="CF20" s="27"/>
+      <c r="CG20" s="27"/>
+      <c r="CH20" s="27"/>
+      <c r="CI20" s="27"/>
+      <c r="CJ20" s="27"/>
+      <c r="CK20" s="27"/>
+      <c r="CL20" s="27"/>
+      <c r="CM20" s="27"/>
+      <c r="CN20" s="27"/>
+      <c r="CO20" s="27"/>
+      <c r="CP20" s="27"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
+      <c r="CS20" s="27"/>
+      <c r="CT20" s="27"/>
+      <c r="CU20" s="27"/>
+      <c r="CV20" s="27"/>
+      <c r="CW20" s="27"/>
+      <c r="CX20" s="27"/>
+      <c r="CY20" s="27"/>
+      <c r="CZ20" s="27"/>
+      <c r="DA20" s="27"/>
+      <c r="DB20" s="27"/>
+      <c r="DC20" s="27"/>
+      <c r="DD20" s="27"/>
+      <c r="DE20" s="27"/>
+      <c r="DF20" s="27"/>
+      <c r="DG20" s="27"/>
+      <c r="DH20" s="27"/>
+      <c r="DI20" s="27"/>
+      <c r="DJ20" s="27"/>
+      <c r="DK20" s="27"/>
+      <c r="DL20" s="27"/>
+      <c r="DM20" s="27"/>
+      <c r="DN20" s="27"/>
+      <c r="DO20" s="27"/>
+      <c r="DP20" s="27"/>
+      <c r="DQ20" s="27"/>
+      <c r="DR20" s="27"/>
+      <c r="DS20" s="27"/>
+      <c r="DT20" s="27"/>
+      <c r="DU20" s="27"/>
+      <c r="DV20" s="27"/>
+      <c r="DW20" s="27"/>
+      <c r="DX20" s="27"/>
+      <c r="DY20" s="27"/>
+      <c r="DZ20" s="27"/>
+      <c r="EA20" s="27"/>
+      <c r="EB20" s="27"/>
+      <c r="EC20" s="27"/>
+      <c r="ED20" s="27"/>
+      <c r="EE20" s="27"/>
+      <c r="EF20" s="27"/>
+      <c r="EG20" s="27"/>
+      <c r="EH20" s="27"/>
+      <c r="EI20" s="27"/>
+      <c r="EJ20" s="27"/>
+      <c r="EK20" s="27"/>
+      <c r="EL20" s="27"/>
+      <c r="EM20" s="27"/>
+      <c r="EN20" s="27"/>
+      <c r="EO20" s="27"/>
+      <c r="EP20" s="27"/>
+      <c r="EQ20" s="27"/>
+      <c r="ER20" s="27"/>
+      <c r="ES20" s="27"/>
+      <c r="ET20" s="27"/>
+      <c r="EU20" s="27"/>
+      <c r="EV20" s="27"/>
+      <c r="EW20" s="27"/>
+      <c r="EX20" s="27"/>
+      <c r="EY20" s="27"/>
+      <c r="EZ20" s="27"/>
+      <c r="FA20" s="27"/>
+      <c r="FB20" s="27"/>
+      <c r="FC20" s="27"/>
+      <c r="FD20" s="27"/>
+      <c r="FE20" s="27"/>
+      <c r="FF20" s="27"/>
+      <c r="FG20" s="27"/>
+      <c r="FH20" s="27"/>
+      <c r="FI20" s="27"/>
+      <c r="FJ20" s="27"/>
+      <c r="FK20" s="27"/>
+      <c r="FL20" s="27"/>
+      <c r="FM20" s="27"/>
+      <c r="FN20" s="27"/>
+      <c r="FO20" s="27"/>
+      <c r="FP20" s="27"/>
+      <c r="FQ20" s="27"/>
+      <c r="FR20" s="27"/>
+      <c r="FS20" s="27"/>
+      <c r="FT20" s="27"/>
+      <c r="FU20" s="27"/>
+      <c r="FV20" s="27"/>
+      <c r="FW20" s="27"/>
+      <c r="FX20" s="27"/>
+      <c r="FY20" s="27"/>
+      <c r="FZ20" s="27"/>
+      <c r="GA20" s="27"/>
+      <c r="GB20" s="27"/>
+      <c r="GC20" s="27"/>
+      <c r="GD20" s="27"/>
+      <c r="GE20" s="27"/>
+      <c r="GF20" s="27"/>
+      <c r="GG20" s="27"/>
+      <c r="GH20" s="27"/>
+      <c r="GI20" s="27"/>
+      <c r="GJ20" s="27"/>
+      <c r="GK20" s="27"/>
+      <c r="GL20" s="27"/>
+      <c r="GM20" s="27"/>
+      <c r="GN20" s="27"/>
+      <c r="GO20" s="27"/>
+      <c r="GP20" s="27"/>
+      <c r="GQ20" s="27"/>
+      <c r="GR20" s="27"/>
+      <c r="GS20" s="27"/>
+      <c r="GT20" s="27"/>
+      <c r="GU20" s="27"/>
+      <c r="GV20" s="27"/>
+      <c r="GW20" s="27"/>
+      <c r="GX20" s="27"/>
+      <c r="GY20" s="27"/>
+      <c r="GZ20" s="27"/>
+      <c r="HA20" s="27"/>
+      <c r="HB20" s="27"/>
+      <c r="HC20" s="27"/>
+      <c r="HD20" s="27"/>
+      <c r="HE20" s="27"/>
+      <c r="HF20" s="27"/>
+      <c r="HG20" s="27"/>
+      <c r="HH20" s="27"/>
+      <c r="HI20" s="27"/>
+      <c r="HJ20" s="27"/>
+      <c r="HK20" s="27"/>
+      <c r="HL20" s="27"/>
+      <c r="HM20" s="27"/>
+      <c r="HN20" s="27"/>
+      <c r="HO20" s="27"/>
+      <c r="HP20" s="27"/>
+      <c r="HQ20" s="27"/>
+      <c r="HR20" s="27"/>
+      <c r="HS20" s="27"/>
+      <c r="HT20" s="27"/>
+      <c r="HU20" s="27"/>
+      <c r="HV20" s="27"/>
+      <c r="HW20" s="27"/>
+      <c r="HX20" s="27"/>
+      <c r="HY20" s="27"/>
+      <c r="HZ20" s="27"/>
+      <c r="IA20" s="27"/>
+      <c r="IB20" s="27"/>
+      <c r="IC20" s="27"/>
+      <c r="ID20" s="27"/>
+      <c r="IE20" s="27"/>
+      <c r="IF20" s="27"/>
+      <c r="IG20" s="27"/>
+      <c r="IH20" s="27"/>
+      <c r="II20" s="27"/>
+      <c r="IJ20" s="27"/>
+      <c r="IK20" s="27"/>
+      <c r="IL20" s="27"/>
+      <c r="IM20" s="27"/>
+      <c r="IN20" s="27"/>
+      <c r="IO20" s="27"/>
+      <c r="IP20" s="27"/>
+      <c r="IQ20" s="27"/>
+      <c r="IR20" s="27"/>
+      <c r="IS20" s="27"/>
+      <c r="IT20" s="27"/>
+      <c r="IU20" s="27"/>
+      <c r="IV20" s="27"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="43"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="43"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="43"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="43"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="43"/>
-      <c r="BR16" s="43"/>
-      <c r="BS16" s="43"/>
-      <c r="BT16" s="43"/>
-      <c r="BU16" s="43"/>
-      <c r="BV16" s="43"/>
-      <c r="BW16" s="43"/>
-      <c r="BX16" s="43"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="43"/>
-      <c r="CK16" s="43"/>
-      <c r="CL16" s="43"/>
-      <c r="CM16" s="43"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
-      <c r="DA16" s="43"/>
-      <c r="DB16" s="43"/>
-      <c r="DC16" s="43"/>
-      <c r="DD16" s="43"/>
-      <c r="DE16" s="43"/>
-      <c r="DF16" s="43"/>
-      <c r="DG16" s="43"/>
-      <c r="DH16" s="43"/>
-      <c r="DI16" s="43"/>
-      <c r="DJ16" s="43"/>
-      <c r="DK16" s="43"/>
-      <c r="DL16" s="43"/>
-      <c r="DM16" s="43"/>
-      <c r="DN16" s="43"/>
-      <c r="DO16" s="43"/>
-      <c r="DP16" s="43"/>
-      <c r="DQ16" s="43"/>
-      <c r="DR16" s="43"/>
-      <c r="DS16" s="43"/>
-      <c r="DT16" s="43"/>
-      <c r="DU16" s="43"/>
-      <c r="DV16" s="43"/>
-      <c r="DW16" s="43"/>
-      <c r="DX16" s="43"/>
-      <c r="DY16" s="43"/>
-      <c r="DZ16" s="43"/>
-      <c r="EA16" s="43"/>
-      <c r="EB16" s="43"/>
-      <c r="EC16" s="43"/>
-      <c r="ED16" s="43"/>
-      <c r="EE16" s="43"/>
-      <c r="EF16" s="43"/>
-      <c r="EG16" s="43"/>
-      <c r="EH16" s="43"/>
-      <c r="EI16" s="43"/>
-      <c r="EJ16" s="43"/>
-      <c r="EK16" s="43"/>
-      <c r="EL16" s="43"/>
-      <c r="EM16" s="43"/>
-      <c r="EN16" s="43"/>
-      <c r="EO16" s="43"/>
-      <c r="EP16" s="43"/>
-      <c r="EQ16" s="43"/>
-      <c r="ER16" s="43"/>
-      <c r="ES16" s="43"/>
-      <c r="ET16" s="43"/>
-      <c r="EU16" s="43"/>
-      <c r="EV16" s="43"/>
-      <c r="EW16" s="43"/>
-      <c r="EX16" s="43"/>
-      <c r="EY16" s="43"/>
-      <c r="EZ16" s="43"/>
-      <c r="FA16" s="43"/>
-      <c r="FB16" s="43"/>
-      <c r="FC16" s="43"/>
-      <c r="FD16" s="43"/>
-      <c r="FE16" s="43"/>
-      <c r="FF16" s="43"/>
-      <c r="FG16" s="43"/>
-      <c r="FH16" s="43"/>
-      <c r="FI16" s="43"/>
-      <c r="FJ16" s="43"/>
-      <c r="FK16" s="43"/>
-      <c r="FL16" s="43"/>
-      <c r="FM16" s="43"/>
-      <c r="FN16" s="43"/>
-      <c r="FO16" s="43"/>
-      <c r="FP16" s="43"/>
-      <c r="FQ16" s="43"/>
-      <c r="FR16" s="43"/>
-      <c r="FS16" s="43"/>
-      <c r="FT16" s="43"/>
-      <c r="FU16" s="43"/>
-      <c r="FV16" s="43"/>
-      <c r="FW16" s="43"/>
-      <c r="FX16" s="43"/>
-      <c r="FY16" s="43"/>
-      <c r="FZ16" s="43"/>
-      <c r="GA16" s="43"/>
-      <c r="GB16" s="43"/>
-      <c r="GC16" s="43"/>
-      <c r="GD16" s="43"/>
-      <c r="GE16" s="43"/>
-      <c r="GF16" s="43"/>
-      <c r="GG16" s="43"/>
-      <c r="GH16" s="43"/>
-      <c r="GI16" s="43"/>
-      <c r="GJ16" s="43"/>
-      <c r="GK16" s="43"/>
-      <c r="GL16" s="43"/>
-      <c r="GM16" s="43"/>
-      <c r="GN16" s="43"/>
-      <c r="GO16" s="43"/>
-      <c r="GP16" s="43"/>
-      <c r="GQ16" s="43"/>
-      <c r="GR16" s="43"/>
-      <c r="GS16" s="43"/>
-      <c r="GT16" s="43"/>
-      <c r="GU16" s="43"/>
-      <c r="GV16" s="43"/>
-      <c r="GW16" s="43"/>
-      <c r="GX16" s="43"/>
-      <c r="GY16" s="43"/>
-      <c r="GZ16" s="43"/>
-      <c r="HA16" s="43"/>
-      <c r="HB16" s="43"/>
-      <c r="HC16" s="43"/>
-      <c r="HD16" s="43"/>
-      <c r="HE16" s="43"/>
-      <c r="HF16" s="43"/>
-      <c r="HG16" s="43"/>
-      <c r="HH16" s="43"/>
-      <c r="HI16" s="43"/>
-      <c r="HJ16" s="43"/>
-      <c r="HK16" s="43"/>
-      <c r="HL16" s="43"/>
-      <c r="HM16" s="43"/>
-      <c r="HN16" s="43"/>
-      <c r="HO16" s="43"/>
-      <c r="HP16" s="43"/>
-      <c r="HQ16" s="43"/>
-      <c r="HR16" s="43"/>
-      <c r="HS16" s="43"/>
-      <c r="HT16" s="43"/>
-      <c r="HU16" s="43"/>
-      <c r="HV16" s="43"/>
-      <c r="HW16" s="43"/>
-      <c r="HX16" s="43"/>
-      <c r="HY16" s="43"/>
-      <c r="HZ16" s="43"/>
-      <c r="IA16" s="43"/>
-      <c r="IB16" s="43"/>
-      <c r="IC16" s="43"/>
-      <c r="ID16" s="43"/>
-      <c r="IE16" s="43"/>
-      <c r="IF16" s="43"/>
-      <c r="IG16" s="43"/>
-      <c r="IH16" s="43"/>
-      <c r="II16" s="43"/>
-      <c r="IJ16" s="43"/>
-      <c r="IK16" s="43"/>
-      <c r="IL16" s="43"/>
-      <c r="IM16" s="43"/>
-      <c r="IN16" s="43"/>
-      <c r="IO16" s="43"/>
-      <c r="IP16" s="43"/>
-      <c r="IQ16" s="43"/>
-      <c r="IR16" s="43"/>
-      <c r="IS16" s="43"/>
-      <c r="IT16" s="43"/>
-      <c r="IU16" s="43"/>
-      <c r="IV16" s="43"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="49" t="s">
-        <v>16</v>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="27"/>
+      <c r="BP21" s="27"/>
+      <c r="BQ21" s="27"/>
+      <c r="BR21" s="27"/>
+      <c r="BS21" s="27"/>
+      <c r="BT21" s="27"/>
+      <c r="BU21" s="27"/>
+      <c r="BV21" s="27"/>
+      <c r="BW21" s="27"/>
+      <c r="BX21" s="27"/>
+      <c r="BY21" s="27"/>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="27"/>
+      <c r="CB21" s="27"/>
+      <c r="CC21" s="27"/>
+      <c r="CD21" s="27"/>
+      <c r="CE21" s="27"/>
+      <c r="CF21" s="27"/>
+      <c r="CG21" s="27"/>
+      <c r="CH21" s="27"/>
+      <c r="CI21" s="27"/>
+      <c r="CJ21" s="27"/>
+      <c r="CK21" s="27"/>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="27"/>
+      <c r="CN21" s="27"/>
+      <c r="CO21" s="27"/>
+      <c r="CP21" s="27"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
+      <c r="CS21" s="27"/>
+      <c r="CT21" s="27"/>
+      <c r="CU21" s="27"/>
+      <c r="CV21" s="27"/>
+      <c r="CW21" s="27"/>
+      <c r="CX21" s="27"/>
+      <c r="CY21" s="27"/>
+      <c r="CZ21" s="27"/>
+      <c r="DA21" s="27"/>
+      <c r="DB21" s="27"/>
+      <c r="DC21" s="27"/>
+      <c r="DD21" s="27"/>
+      <c r="DE21" s="27"/>
+      <c r="DF21" s="27"/>
+      <c r="DG21" s="27"/>
+      <c r="DH21" s="27"/>
+      <c r="DI21" s="27"/>
+      <c r="DJ21" s="27"/>
+      <c r="DK21" s="27"/>
+      <c r="DL21" s="27"/>
+      <c r="DM21" s="27"/>
+      <c r="DN21" s="27"/>
+      <c r="DO21" s="27"/>
+      <c r="DP21" s="27"/>
+      <c r="DQ21" s="27"/>
+      <c r="DR21" s="27"/>
+      <c r="DS21" s="27"/>
+      <c r="DT21" s="27"/>
+      <c r="DU21" s="27"/>
+      <c r="DV21" s="27"/>
+      <c r="DW21" s="27"/>
+      <c r="DX21" s="27"/>
+      <c r="DY21" s="27"/>
+      <c r="DZ21" s="27"/>
+      <c r="EA21" s="27"/>
+      <c r="EB21" s="27"/>
+      <c r="EC21" s="27"/>
+      <c r="ED21" s="27"/>
+      <c r="EE21" s="27"/>
+      <c r="EF21" s="27"/>
+      <c r="EG21" s="27"/>
+      <c r="EH21" s="27"/>
+      <c r="EI21" s="27"/>
+      <c r="EJ21" s="27"/>
+      <c r="EK21" s="27"/>
+      <c r="EL21" s="27"/>
+      <c r="EM21" s="27"/>
+      <c r="EN21" s="27"/>
+      <c r="EO21" s="27"/>
+      <c r="EP21" s="27"/>
+      <c r="EQ21" s="27"/>
+      <c r="ER21" s="27"/>
+      <c r="ES21" s="27"/>
+      <c r="ET21" s="27"/>
+      <c r="EU21" s="27"/>
+      <c r="EV21" s="27"/>
+      <c r="EW21" s="27"/>
+      <c r="EX21" s="27"/>
+      <c r="EY21" s="27"/>
+      <c r="EZ21" s="27"/>
+      <c r="FA21" s="27"/>
+      <c r="FB21" s="27"/>
+      <c r="FC21" s="27"/>
+      <c r="FD21" s="27"/>
+      <c r="FE21" s="27"/>
+      <c r="FF21" s="27"/>
+      <c r="FG21" s="27"/>
+      <c r="FH21" s="27"/>
+      <c r="FI21" s="27"/>
+      <c r="FJ21" s="27"/>
+      <c r="FK21" s="27"/>
+      <c r="FL21" s="27"/>
+      <c r="FM21" s="27"/>
+      <c r="FN21" s="27"/>
+      <c r="FO21" s="27"/>
+      <c r="FP21" s="27"/>
+      <c r="FQ21" s="27"/>
+      <c r="FR21" s="27"/>
+      <c r="FS21" s="27"/>
+      <c r="FT21" s="27"/>
+      <c r="FU21" s="27"/>
+      <c r="FV21" s="27"/>
+      <c r="FW21" s="27"/>
+      <c r="FX21" s="27"/>
+      <c r="FY21" s="27"/>
+      <c r="FZ21" s="27"/>
+      <c r="GA21" s="27"/>
+      <c r="GB21" s="27"/>
+      <c r="GC21" s="27"/>
+      <c r="GD21" s="27"/>
+      <c r="GE21" s="27"/>
+      <c r="GF21" s="27"/>
+      <c r="GG21" s="27"/>
+      <c r="GH21" s="27"/>
+      <c r="GI21" s="27"/>
+      <c r="GJ21" s="27"/>
+      <c r="GK21" s="27"/>
+      <c r="GL21" s="27"/>
+      <c r="GM21" s="27"/>
+      <c r="GN21" s="27"/>
+      <c r="GO21" s="27"/>
+      <c r="GP21" s="27"/>
+      <c r="GQ21" s="27"/>
+      <c r="GR21" s="27"/>
+      <c r="GS21" s="27"/>
+      <c r="GT21" s="27"/>
+      <c r="GU21" s="27"/>
+      <c r="GV21" s="27"/>
+      <c r="GW21" s="27"/>
+      <c r="GX21" s="27"/>
+      <c r="GY21" s="27"/>
+      <c r="GZ21" s="27"/>
+      <c r="HA21" s="27"/>
+      <c r="HB21" s="27"/>
+      <c r="HC21" s="27"/>
+      <c r="HD21" s="27"/>
+      <c r="HE21" s="27"/>
+      <c r="HF21" s="27"/>
+      <c r="HG21" s="27"/>
+      <c r="HH21" s="27"/>
+      <c r="HI21" s="27"/>
+      <c r="HJ21" s="27"/>
+      <c r="HK21" s="27"/>
+      <c r="HL21" s="27"/>
+      <c r="HM21" s="27"/>
+      <c r="HN21" s="27"/>
+      <c r="HO21" s="27"/>
+      <c r="HP21" s="27"/>
+      <c r="HQ21" s="27"/>
+      <c r="HR21" s="27"/>
+      <c r="HS21" s="27"/>
+      <c r="HT21" s="27"/>
+      <c r="HU21" s="27"/>
+      <c r="HV21" s="27"/>
+      <c r="HW21" s="27"/>
+      <c r="HX21" s="27"/>
+      <c r="HY21" s="27"/>
+      <c r="HZ21" s="27"/>
+      <c r="IA21" s="27"/>
+      <c r="IB21" s="27"/>
+      <c r="IC21" s="27"/>
+      <c r="ID21" s="27"/>
+      <c r="IE21" s="27"/>
+      <c r="IF21" s="27"/>
+      <c r="IG21" s="27"/>
+      <c r="IH21" s="27"/>
+      <c r="II21" s="27"/>
+      <c r="IJ21" s="27"/>
+      <c r="IK21" s="27"/>
+      <c r="IL21" s="27"/>
+      <c r="IM21" s="27"/>
+      <c r="IN21" s="27"/>
+      <c r="IO21" s="27"/>
+      <c r="IP21" s="27"/>
+      <c r="IQ21" s="27"/>
+      <c r="IR21" s="27"/>
+      <c r="IS21" s="27"/>
+      <c r="IT21" s="27"/>
+      <c r="IU21" s="27"/>
+      <c r="IV21" s="27"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BE22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="27"/>
+      <c r="BJ22" s="27"/>
+      <c r="BK22" s="27"/>
+      <c r="BL22" s="27"/>
+      <c r="BM22" s="27"/>
+      <c r="BN22" s="27"/>
+      <c r="BO22" s="27"/>
+      <c r="BP22" s="27"/>
+      <c r="BQ22" s="27"/>
+      <c r="BR22" s="27"/>
+      <c r="BS22" s="27"/>
+      <c r="BT22" s="27"/>
+      <c r="BU22" s="27"/>
+      <c r="BV22" s="27"/>
+      <c r="BW22" s="27"/>
+      <c r="BX22" s="27"/>
+      <c r="BY22" s="27"/>
+      <c r="BZ22" s="27"/>
+      <c r="CA22" s="27"/>
+      <c r="CB22" s="27"/>
+      <c r="CC22" s="27"/>
+      <c r="CD22" s="27"/>
+      <c r="CE22" s="27"/>
+      <c r="CF22" s="27"/>
+      <c r="CG22" s="27"/>
+      <c r="CH22" s="27"/>
+      <c r="CI22" s="27"/>
+      <c r="CJ22" s="27"/>
+      <c r="CK22" s="27"/>
+      <c r="CL22" s="27"/>
+      <c r="CM22" s="27"/>
+      <c r="CN22" s="27"/>
+      <c r="CO22" s="27"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
+      <c r="CS22" s="27"/>
+      <c r="CT22" s="27"/>
+      <c r="CU22" s="27"/>
+      <c r="CV22" s="27"/>
+      <c r="CW22" s="27"/>
+      <c r="CX22" s="27"/>
+      <c r="CY22" s="27"/>
+      <c r="CZ22" s="27"/>
+      <c r="DA22" s="27"/>
+      <c r="DB22" s="27"/>
+      <c r="DC22" s="27"/>
+      <c r="DD22" s="27"/>
+      <c r="DE22" s="27"/>
+      <c r="DF22" s="27"/>
+      <c r="DG22" s="27"/>
+      <c r="DH22" s="27"/>
+      <c r="DI22" s="27"/>
+      <c r="DJ22" s="27"/>
+      <c r="DK22" s="27"/>
+      <c r="DL22" s="27"/>
+      <c r="DM22" s="27"/>
+      <c r="DN22" s="27"/>
+      <c r="DO22" s="27"/>
+      <c r="DP22" s="27"/>
+      <c r="DQ22" s="27"/>
+      <c r="DR22" s="27"/>
+      <c r="DS22" s="27"/>
+      <c r="DT22" s="27"/>
+      <c r="DU22" s="27"/>
+      <c r="DV22" s="27"/>
+      <c r="DW22" s="27"/>
+      <c r="DX22" s="27"/>
+      <c r="DY22" s="27"/>
+      <c r="DZ22" s="27"/>
+      <c r="EA22" s="27"/>
+      <c r="EB22" s="27"/>
+      <c r="EC22" s="27"/>
+      <c r="ED22" s="27"/>
+      <c r="EE22" s="27"/>
+      <c r="EF22" s="27"/>
+      <c r="EG22" s="27"/>
+      <c r="EH22" s="27"/>
+      <c r="EI22" s="27"/>
+      <c r="EJ22" s="27"/>
+      <c r="EK22" s="27"/>
+      <c r="EL22" s="27"/>
+      <c r="EM22" s="27"/>
+      <c r="EN22" s="27"/>
+      <c r="EO22" s="27"/>
+      <c r="EP22" s="27"/>
+      <c r="EQ22" s="27"/>
+      <c r="ER22" s="27"/>
+      <c r="ES22" s="27"/>
+      <c r="ET22" s="27"/>
+      <c r="EU22" s="27"/>
+      <c r="EV22" s="27"/>
+      <c r="EW22" s="27"/>
+      <c r="EX22" s="27"/>
+      <c r="EY22" s="27"/>
+      <c r="EZ22" s="27"/>
+      <c r="FA22" s="27"/>
+      <c r="FB22" s="27"/>
+      <c r="FC22" s="27"/>
+      <c r="FD22" s="27"/>
+      <c r="FE22" s="27"/>
+      <c r="FF22" s="27"/>
+      <c r="FG22" s="27"/>
+      <c r="FH22" s="27"/>
+      <c r="FI22" s="27"/>
+      <c r="FJ22" s="27"/>
+      <c r="FK22" s="27"/>
+      <c r="FL22" s="27"/>
+      <c r="FM22" s="27"/>
+      <c r="FN22" s="27"/>
+      <c r="FO22" s="27"/>
+      <c r="FP22" s="27"/>
+      <c r="FQ22" s="27"/>
+      <c r="FR22" s="27"/>
+      <c r="FS22" s="27"/>
+      <c r="FT22" s="27"/>
+      <c r="FU22" s="27"/>
+      <c r="FV22" s="27"/>
+      <c r="FW22" s="27"/>
+      <c r="FX22" s="27"/>
+      <c r="FY22" s="27"/>
+      <c r="FZ22" s="27"/>
+      <c r="GA22" s="27"/>
+      <c r="GB22" s="27"/>
+      <c r="GC22" s="27"/>
+      <c r="GD22" s="27"/>
+      <c r="GE22" s="27"/>
+      <c r="GF22" s="27"/>
+      <c r="GG22" s="27"/>
+      <c r="GH22" s="27"/>
+      <c r="GI22" s="27"/>
+      <c r="GJ22" s="27"/>
+      <c r="GK22" s="27"/>
+      <c r="GL22" s="27"/>
+      <c r="GM22" s="27"/>
+      <c r="GN22" s="27"/>
+      <c r="GO22" s="27"/>
+      <c r="GP22" s="27"/>
+      <c r="GQ22" s="27"/>
+      <c r="GR22" s="27"/>
+      <c r="GS22" s="27"/>
+      <c r="GT22" s="27"/>
+      <c r="GU22" s="27"/>
+      <c r="GV22" s="27"/>
+      <c r="GW22" s="27"/>
+      <c r="GX22" s="27"/>
+      <c r="GY22" s="27"/>
+      <c r="GZ22" s="27"/>
+      <c r="HA22" s="27"/>
+      <c r="HB22" s="27"/>
+      <c r="HC22" s="27"/>
+      <c r="HD22" s="27"/>
+      <c r="HE22" s="27"/>
+      <c r="HF22" s="27"/>
+      <c r="HG22" s="27"/>
+      <c r="HH22" s="27"/>
+      <c r="HI22" s="27"/>
+      <c r="HJ22" s="27"/>
+      <c r="HK22" s="27"/>
+      <c r="HL22" s="27"/>
+      <c r="HM22" s="27"/>
+      <c r="HN22" s="27"/>
+      <c r="HO22" s="27"/>
+      <c r="HP22" s="27"/>
+      <c r="HQ22" s="27"/>
+      <c r="HR22" s="27"/>
+      <c r="HS22" s="27"/>
+      <c r="HT22" s="27"/>
+      <c r="HU22" s="27"/>
+      <c r="HV22" s="27"/>
+      <c r="HW22" s="27"/>
+      <c r="HX22" s="27"/>
+      <c r="HY22" s="27"/>
+      <c r="HZ22" s="27"/>
+      <c r="IA22" s="27"/>
+      <c r="IB22" s="27"/>
+      <c r="IC22" s="27"/>
+      <c r="ID22" s="27"/>
+      <c r="IE22" s="27"/>
+      <c r="IF22" s="27"/>
+      <c r="IG22" s="27"/>
+      <c r="IH22" s="27"/>
+      <c r="II22" s="27"/>
+      <c r="IJ22" s="27"/>
+      <c r="IK22" s="27"/>
+      <c r="IL22" s="27"/>
+      <c r="IM22" s="27"/>
+      <c r="IN22" s="27"/>
+      <c r="IO22" s="27"/>
+      <c r="IP22" s="27"/>
+      <c r="IQ22" s="27"/>
+      <c r="IR22" s="27"/>
+      <c r="IS22" s="27"/>
+      <c r="IT22" s="27"/>
+      <c r="IU22" s="27"/>
+      <c r="IV22" s="27"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="37" t="s">
+        <v>9</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="52" t="s">
-        <v>18</v>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="53" t="s">
-        <v>19</v>
+      <c r="B34" s="19"/>
+      <c r="C34" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>18</v>
+      <c r="D34" s="23" t="s">
+        <v>12</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="58"/>
-      <c r="BQ17" s="58"/>
-      <c r="BR17" s="58"/>
-      <c r="BS17" s="58"/>
-      <c r="BT17" s="58"/>
-      <c r="BU17" s="58"/>
-      <c r="BV17" s="58"/>
-      <c r="BW17" s="58"/>
-      <c r="BX17" s="58"/>
-      <c r="BY17" s="58"/>
-      <c r="BZ17" s="58"/>
-      <c r="CA17" s="58"/>
-      <c r="CB17" s="58"/>
-      <c r="CC17" s="58"/>
-      <c r="CD17" s="58"/>
-      <c r="CE17" s="58"/>
-      <c r="CF17" s="58"/>
-      <c r="CG17" s="58"/>
-      <c r="CH17" s="58"/>
-      <c r="CI17" s="58"/>
-      <c r="CJ17" s="58"/>
-      <c r="CK17" s="58"/>
-      <c r="CL17" s="58"/>
-      <c r="CM17" s="58"/>
-      <c r="CN17" s="58"/>
-      <c r="CO17" s="58"/>
-      <c r="CP17" s="58"/>
-      <c r="CQ17" s="58"/>
-      <c r="CR17" s="58"/>
-      <c r="CS17" s="58"/>
-      <c r="CT17" s="58"/>
-      <c r="CU17" s="58"/>
-      <c r="CV17" s="58"/>
-      <c r="CW17" s="58"/>
-      <c r="CX17" s="58"/>
-      <c r="CY17" s="58"/>
-      <c r="CZ17" s="58"/>
-      <c r="DA17" s="58"/>
-      <c r="DB17" s="58"/>
-      <c r="DC17" s="58"/>
-      <c r="DD17" s="58"/>
-      <c r="DE17" s="58"/>
-      <c r="DF17" s="58"/>
-      <c r="DG17" s="58"/>
-      <c r="DH17" s="58"/>
-      <c r="DI17" s="58"/>
-      <c r="DJ17" s="58"/>
-      <c r="DK17" s="58"/>
-      <c r="DL17" s="58"/>
-      <c r="DM17" s="58"/>
-      <c r="DN17" s="58"/>
-      <c r="DO17" s="58"/>
-      <c r="DP17" s="58"/>
-      <c r="DQ17" s="58"/>
-      <c r="DR17" s="58"/>
-      <c r="DS17" s="58"/>
-      <c r="DT17" s="58"/>
-      <c r="DU17" s="58"/>
-      <c r="DV17" s="58"/>
-      <c r="DW17" s="58"/>
-      <c r="DX17" s="58"/>
-      <c r="DY17" s="58"/>
-      <c r="DZ17" s="58"/>
-      <c r="EA17" s="58"/>
-      <c r="EB17" s="58"/>
-      <c r="EC17" s="58"/>
-      <c r="ED17" s="58"/>
-      <c r="EE17" s="58"/>
-      <c r="EF17" s="58"/>
-      <c r="EG17" s="58"/>
-      <c r="EH17" s="58"/>
-      <c r="EI17" s="58"/>
-      <c r="EJ17" s="58"/>
-      <c r="EK17" s="58"/>
-      <c r="EL17" s="58"/>
-      <c r="EM17" s="58"/>
-      <c r="EN17" s="58"/>
-      <c r="EO17" s="58"/>
-      <c r="EP17" s="58"/>
-      <c r="EQ17" s="58"/>
-      <c r="ER17" s="58"/>
-      <c r="ES17" s="58"/>
-      <c r="ET17" s="58"/>
-      <c r="EU17" s="58"/>
-      <c r="EV17" s="58"/>
-      <c r="EW17" s="58"/>
-      <c r="EX17" s="58"/>
-      <c r="EY17" s="58"/>
-      <c r="EZ17" s="58"/>
-      <c r="FA17" s="58"/>
-      <c r="FB17" s="58"/>
-      <c r="FC17" s="58"/>
-      <c r="FD17" s="58"/>
-      <c r="FE17" s="58"/>
-      <c r="FF17" s="58"/>
-      <c r="FG17" s="58"/>
-      <c r="FH17" s="58"/>
-      <c r="FI17" s="58"/>
-      <c r="FJ17" s="58"/>
-      <c r="FK17" s="58"/>
-      <c r="FL17" s="58"/>
-      <c r="FM17" s="58"/>
-      <c r="FN17" s="58"/>
-      <c r="FO17" s="58"/>
-      <c r="FP17" s="58"/>
-      <c r="FQ17" s="58"/>
-      <c r="FR17" s="58"/>
-      <c r="FS17" s="58"/>
-      <c r="FT17" s="58"/>
-      <c r="FU17" s="58"/>
-      <c r="FV17" s="58"/>
-      <c r="FW17" s="58"/>
-      <c r="FX17" s="58"/>
-      <c r="FY17" s="58"/>
-      <c r="FZ17" s="58"/>
-      <c r="GA17" s="58"/>
-      <c r="GB17" s="58"/>
-      <c r="GC17" s="58"/>
-      <c r="GD17" s="58"/>
-      <c r="GE17" s="58"/>
-      <c r="GF17" s="58"/>
-      <c r="GG17" s="58"/>
-      <c r="GH17" s="58"/>
-      <c r="GI17" s="58"/>
-      <c r="GJ17" s="58"/>
-      <c r="GK17" s="58"/>
-      <c r="GL17" s="58"/>
-      <c r="GM17" s="58"/>
-      <c r="GN17" s="58"/>
-      <c r="GO17" s="58"/>
-      <c r="GP17" s="58"/>
-      <c r="GQ17" s="58"/>
-      <c r="GR17" s="58"/>
-      <c r="GS17" s="58"/>
-      <c r="GT17" s="58"/>
-      <c r="GU17" s="58"/>
-      <c r="GV17" s="58"/>
-      <c r="GW17" s="58"/>
-      <c r="GX17" s="58"/>
-      <c r="GY17" s="58"/>
-      <c r="GZ17" s="58"/>
-      <c r="HA17" s="58"/>
-      <c r="HB17" s="58"/>
-      <c r="HC17" s="58"/>
-      <c r="HD17" s="58"/>
-      <c r="HE17" s="58"/>
-      <c r="HF17" s="58"/>
-      <c r="HG17" s="58"/>
-      <c r="HH17" s="58"/>
-      <c r="HI17" s="58"/>
-      <c r="HJ17" s="58"/>
-      <c r="HK17" s="58"/>
-      <c r="HL17" s="58"/>
-      <c r="HM17" s="58"/>
-      <c r="HN17" s="58"/>
-      <c r="HO17" s="58"/>
-      <c r="HP17" s="58"/>
-      <c r="HQ17" s="58"/>
-      <c r="HR17" s="58"/>
-      <c r="HS17" s="58"/>
-      <c r="HT17" s="58"/>
-      <c r="HU17" s="58"/>
-      <c r="HV17" s="58"/>
-      <c r="HW17" s="58"/>
-      <c r="HX17" s="58"/>
-      <c r="HY17" s="58"/>
-      <c r="HZ17" s="58"/>
-      <c r="IA17" s="58"/>
-      <c r="IB17" s="58"/>
-      <c r="IC17" s="58"/>
-      <c r="ID17" s="58"/>
-      <c r="IE17" s="58"/>
-      <c r="IF17" s="58"/>
-      <c r="IG17" s="58"/>
-      <c r="IH17" s="58"/>
-      <c r="II17" s="58"/>
-      <c r="IJ17" s="58"/>
-      <c r="IK17" s="58"/>
-      <c r="IL17" s="58"/>
-      <c r="IM17" s="58"/>
-      <c r="IN17" s="58"/>
-      <c r="IO17" s="58"/>
-      <c r="IP17" s="58"/>
-      <c r="IQ17" s="58"/>
-      <c r="IR17" s="58"/>
-      <c r="IS17" s="58"/>
-      <c r="IT17" s="58"/>
-      <c r="IU17" s="58"/>
-      <c r="IV17" s="58"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="58"/>
-      <c r="BQ18" s="58"/>
-      <c r="BR18" s="58"/>
-      <c r="BS18" s="58"/>
-      <c r="BT18" s="58"/>
-      <c r="BU18" s="58"/>
-      <c r="BV18" s="58"/>
-      <c r="BW18" s="58"/>
-      <c r="BX18" s="58"/>
-      <c r="BY18" s="58"/>
-      <c r="BZ18" s="58"/>
-      <c r="CA18" s="58"/>
-      <c r="CB18" s="58"/>
-      <c r="CC18" s="58"/>
-      <c r="CD18" s="58"/>
-      <c r="CE18" s="58"/>
-      <c r="CF18" s="58"/>
-      <c r="CG18" s="58"/>
-      <c r="CH18" s="58"/>
-      <c r="CI18" s="58"/>
-      <c r="CJ18" s="58"/>
-      <c r="CK18" s="58"/>
-      <c r="CL18" s="58"/>
-      <c r="CM18" s="58"/>
-      <c r="CN18" s="58"/>
-      <c r="CO18" s="58"/>
-      <c r="CP18" s="58"/>
-      <c r="CQ18" s="58"/>
-      <c r="CR18" s="58"/>
-      <c r="CS18" s="58"/>
-      <c r="CT18" s="58"/>
-      <c r="CU18" s="58"/>
-      <c r="CV18" s="58"/>
-      <c r="CW18" s="58"/>
-      <c r="CX18" s="58"/>
-      <c r="CY18" s="58"/>
-      <c r="CZ18" s="58"/>
-      <c r="DA18" s="58"/>
-      <c r="DB18" s="58"/>
-      <c r="DC18" s="58"/>
-      <c r="DD18" s="58"/>
-      <c r="DE18" s="58"/>
-      <c r="DF18" s="58"/>
-      <c r="DG18" s="58"/>
-      <c r="DH18" s="58"/>
-      <c r="DI18" s="58"/>
-      <c r="DJ18" s="58"/>
-      <c r="DK18" s="58"/>
-      <c r="DL18" s="58"/>
-      <c r="DM18" s="58"/>
-      <c r="DN18" s="58"/>
-      <c r="DO18" s="58"/>
-      <c r="DP18" s="58"/>
-      <c r="DQ18" s="58"/>
-      <c r="DR18" s="58"/>
-      <c r="DS18" s="58"/>
-      <c r="DT18" s="58"/>
-      <c r="DU18" s="58"/>
-      <c r="DV18" s="58"/>
-      <c r="DW18" s="58"/>
-      <c r="DX18" s="58"/>
-      <c r="DY18" s="58"/>
-      <c r="DZ18" s="58"/>
-      <c r="EA18" s="58"/>
-      <c r="EB18" s="58"/>
-      <c r="EC18" s="58"/>
-      <c r="ED18" s="58"/>
-      <c r="EE18" s="58"/>
-      <c r="EF18" s="58"/>
-      <c r="EG18" s="58"/>
-      <c r="EH18" s="58"/>
-      <c r="EI18" s="58"/>
-      <c r="EJ18" s="58"/>
-      <c r="EK18" s="58"/>
-      <c r="EL18" s="58"/>
-      <c r="EM18" s="58"/>
-      <c r="EN18" s="58"/>
-      <c r="EO18" s="58"/>
-      <c r="EP18" s="58"/>
-      <c r="EQ18" s="58"/>
-      <c r="ER18" s="58"/>
-      <c r="ES18" s="58"/>
-      <c r="ET18" s="58"/>
-      <c r="EU18" s="58"/>
-      <c r="EV18" s="58"/>
-      <c r="EW18" s="58"/>
-      <c r="EX18" s="58"/>
-      <c r="EY18" s="58"/>
-      <c r="EZ18" s="58"/>
-      <c r="FA18" s="58"/>
-      <c r="FB18" s="58"/>
-      <c r="FC18" s="58"/>
-      <c r="FD18" s="58"/>
-      <c r="FE18" s="58"/>
-      <c r="FF18" s="58"/>
-      <c r="FG18" s="58"/>
-      <c r="FH18" s="58"/>
-      <c r="FI18" s="58"/>
-      <c r="FJ18" s="58"/>
-      <c r="FK18" s="58"/>
-      <c r="FL18" s="58"/>
-      <c r="FM18" s="58"/>
-      <c r="FN18" s="58"/>
-      <c r="FO18" s="58"/>
-      <c r="FP18" s="58"/>
-      <c r="FQ18" s="58"/>
-      <c r="FR18" s="58"/>
-      <c r="FS18" s="58"/>
-      <c r="FT18" s="58"/>
-      <c r="FU18" s="58"/>
-      <c r="FV18" s="58"/>
-      <c r="FW18" s="58"/>
-      <c r="FX18" s="58"/>
-      <c r="FY18" s="58"/>
-      <c r="FZ18" s="58"/>
-      <c r="GA18" s="58"/>
-      <c r="GB18" s="58"/>
-      <c r="GC18" s="58"/>
-      <c r="GD18" s="58"/>
-      <c r="GE18" s="58"/>
-      <c r="GF18" s="58"/>
-      <c r="GG18" s="58"/>
-      <c r="GH18" s="58"/>
-      <c r="GI18" s="58"/>
-      <c r="GJ18" s="58"/>
-      <c r="GK18" s="58"/>
-      <c r="GL18" s="58"/>
-      <c r="GM18" s="58"/>
-      <c r="GN18" s="58"/>
-      <c r="GO18" s="58"/>
-      <c r="GP18" s="58"/>
-      <c r="GQ18" s="58"/>
-      <c r="GR18" s="58"/>
-      <c r="GS18" s="58"/>
-      <c r="GT18" s="58"/>
-      <c r="GU18" s="58"/>
-      <c r="GV18" s="58"/>
-      <c r="GW18" s="58"/>
-      <c r="GX18" s="58"/>
-      <c r="GY18" s="58"/>
-      <c r="GZ18" s="58"/>
-      <c r="HA18" s="58"/>
-      <c r="HB18" s="58"/>
-      <c r="HC18" s="58"/>
-      <c r="HD18" s="58"/>
-      <c r="HE18" s="58"/>
-      <c r="HF18" s="58"/>
-      <c r="HG18" s="58"/>
-      <c r="HH18" s="58"/>
-      <c r="HI18" s="58"/>
-      <c r="HJ18" s="58"/>
-      <c r="HK18" s="58"/>
-      <c r="HL18" s="58"/>
-      <c r="HM18" s="58"/>
-      <c r="HN18" s="58"/>
-      <c r="HO18" s="58"/>
-      <c r="HP18" s="58"/>
-      <c r="HQ18" s="58"/>
-      <c r="HR18" s="58"/>
-      <c r="HS18" s="58"/>
-      <c r="HT18" s="58"/>
-      <c r="HU18" s="58"/>
-      <c r="HV18" s="58"/>
-      <c r="HW18" s="58"/>
-      <c r="HX18" s="58"/>
-      <c r="HY18" s="58"/>
-      <c r="HZ18" s="58"/>
-      <c r="IA18" s="58"/>
-      <c r="IB18" s="58"/>
-      <c r="IC18" s="58"/>
-      <c r="ID18" s="58"/>
-      <c r="IE18" s="58"/>
-      <c r="IF18" s="58"/>
-      <c r="IG18" s="58"/>
-      <c r="IH18" s="58"/>
-      <c r="II18" s="58"/>
-      <c r="IJ18" s="58"/>
-      <c r="IK18" s="58"/>
-      <c r="IL18" s="58"/>
-      <c r="IM18" s="58"/>
-      <c r="IN18" s="58"/>
-      <c r="IO18" s="58"/>
-      <c r="IP18" s="58"/>
-      <c r="IQ18" s="58"/>
-      <c r="IR18" s="58"/>
-      <c r="IS18" s="58"/>
-      <c r="IT18" s="58"/>
-      <c r="IU18" s="58"/>
-      <c r="IV18" s="58"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="58"/>
-      <c r="BQ19" s="58"/>
-      <c r="BR19" s="58"/>
-      <c r="BS19" s="58"/>
-      <c r="BT19" s="58"/>
-      <c r="BU19" s="58"/>
-      <c r="BV19" s="58"/>
-      <c r="BW19" s="58"/>
-      <c r="BX19" s="58"/>
-      <c r="BY19" s="58"/>
-      <c r="BZ19" s="58"/>
-      <c r="CA19" s="58"/>
-      <c r="CB19" s="58"/>
-      <c r="CC19" s="58"/>
-      <c r="CD19" s="58"/>
-      <c r="CE19" s="58"/>
-      <c r="CF19" s="58"/>
-      <c r="CG19" s="58"/>
-      <c r="CH19" s="58"/>
-      <c r="CI19" s="58"/>
-      <c r="CJ19" s="58"/>
-      <c r="CK19" s="58"/>
-      <c r="CL19" s="58"/>
-      <c r="CM19" s="58"/>
-      <c r="CN19" s="58"/>
-      <c r="CO19" s="58"/>
-      <c r="CP19" s="58"/>
-      <c r="CQ19" s="58"/>
-      <c r="CR19" s="58"/>
-      <c r="CS19" s="58"/>
-      <c r="CT19" s="58"/>
-      <c r="CU19" s="58"/>
-      <c r="CV19" s="58"/>
-      <c r="CW19" s="58"/>
-      <c r="CX19" s="58"/>
-      <c r="CY19" s="58"/>
-      <c r="CZ19" s="58"/>
-      <c r="DA19" s="58"/>
-      <c r="DB19" s="58"/>
-      <c r="DC19" s="58"/>
-      <c r="DD19" s="58"/>
-      <c r="DE19" s="58"/>
-      <c r="DF19" s="58"/>
-      <c r="DG19" s="58"/>
-      <c r="DH19" s="58"/>
-      <c r="DI19" s="58"/>
-      <c r="DJ19" s="58"/>
-      <c r="DK19" s="58"/>
-      <c r="DL19" s="58"/>
-      <c r="DM19" s="58"/>
-      <c r="DN19" s="58"/>
-      <c r="DO19" s="58"/>
-      <c r="DP19" s="58"/>
-      <c r="DQ19" s="58"/>
-      <c r="DR19" s="58"/>
-      <c r="DS19" s="58"/>
-      <c r="DT19" s="58"/>
-      <c r="DU19" s="58"/>
-      <c r="DV19" s="58"/>
-      <c r="DW19" s="58"/>
-      <c r="DX19" s="58"/>
-      <c r="DY19" s="58"/>
-      <c r="DZ19" s="58"/>
-      <c r="EA19" s="58"/>
-      <c r="EB19" s="58"/>
-      <c r="EC19" s="58"/>
-      <c r="ED19" s="58"/>
-      <c r="EE19" s="58"/>
-      <c r="EF19" s="58"/>
-      <c r="EG19" s="58"/>
-      <c r="EH19" s="58"/>
-      <c r="EI19" s="58"/>
-      <c r="EJ19" s="58"/>
-      <c r="EK19" s="58"/>
-      <c r="EL19" s="58"/>
-      <c r="EM19" s="58"/>
-      <c r="EN19" s="58"/>
-      <c r="EO19" s="58"/>
-      <c r="EP19" s="58"/>
-      <c r="EQ19" s="58"/>
-      <c r="ER19" s="58"/>
-      <c r="ES19" s="58"/>
-      <c r="ET19" s="58"/>
-      <c r="EU19" s="58"/>
-      <c r="EV19" s="58"/>
-      <c r="EW19" s="58"/>
-      <c r="EX19" s="58"/>
-      <c r="EY19" s="58"/>
-      <c r="EZ19" s="58"/>
-      <c r="FA19" s="58"/>
-      <c r="FB19" s="58"/>
-      <c r="FC19" s="58"/>
-      <c r="FD19" s="58"/>
-      <c r="FE19" s="58"/>
-      <c r="FF19" s="58"/>
-      <c r="FG19" s="58"/>
-      <c r="FH19" s="58"/>
-      <c r="FI19" s="58"/>
-      <c r="FJ19" s="58"/>
-      <c r="FK19" s="58"/>
-      <c r="FL19" s="58"/>
-      <c r="FM19" s="58"/>
-      <c r="FN19" s="58"/>
-      <c r="FO19" s="58"/>
-      <c r="FP19" s="58"/>
-      <c r="FQ19" s="58"/>
-      <c r="FR19" s="58"/>
-      <c r="FS19" s="58"/>
-      <c r="FT19" s="58"/>
-      <c r="FU19" s="58"/>
-      <c r="FV19" s="58"/>
-      <c r="FW19" s="58"/>
-      <c r="FX19" s="58"/>
-      <c r="FY19" s="58"/>
-      <c r="FZ19" s="58"/>
-      <c r="GA19" s="58"/>
-      <c r="GB19" s="58"/>
-      <c r="GC19" s="58"/>
-      <c r="GD19" s="58"/>
-      <c r="GE19" s="58"/>
-      <c r="GF19" s="58"/>
-      <c r="GG19" s="58"/>
-      <c r="GH19" s="58"/>
-      <c r="GI19" s="58"/>
-      <c r="GJ19" s="58"/>
-      <c r="GK19" s="58"/>
-      <c r="GL19" s="58"/>
-      <c r="GM19" s="58"/>
-      <c r="GN19" s="58"/>
-      <c r="GO19" s="58"/>
-      <c r="GP19" s="58"/>
-      <c r="GQ19" s="58"/>
-      <c r="GR19" s="58"/>
-      <c r="GS19" s="58"/>
-      <c r="GT19" s="58"/>
-      <c r="GU19" s="58"/>
-      <c r="GV19" s="58"/>
-      <c r="GW19" s="58"/>
-      <c r="GX19" s="58"/>
-      <c r="GY19" s="58"/>
-      <c r="GZ19" s="58"/>
-      <c r="HA19" s="58"/>
-      <c r="HB19" s="58"/>
-      <c r="HC19" s="58"/>
-      <c r="HD19" s="58"/>
-      <c r="HE19" s="58"/>
-      <c r="HF19" s="58"/>
-      <c r="HG19" s="58"/>
-      <c r="HH19" s="58"/>
-      <c r="HI19" s="58"/>
-      <c r="HJ19" s="58"/>
-      <c r="HK19" s="58"/>
-      <c r="HL19" s="58"/>
-      <c r="HM19" s="58"/>
-      <c r="HN19" s="58"/>
-      <c r="HO19" s="58"/>
-      <c r="HP19" s="58"/>
-      <c r="HQ19" s="58"/>
-      <c r="HR19" s="58"/>
-      <c r="HS19" s="58"/>
-      <c r="HT19" s="58"/>
-      <c r="HU19" s="58"/>
-      <c r="HV19" s="58"/>
-      <c r="HW19" s="58"/>
-      <c r="HX19" s="58"/>
-      <c r="HY19" s="58"/>
-      <c r="HZ19" s="58"/>
-      <c r="IA19" s="58"/>
-      <c r="IB19" s="58"/>
-      <c r="IC19" s="58"/>
-      <c r="ID19" s="58"/>
-      <c r="IE19" s="58"/>
-      <c r="IF19" s="58"/>
-      <c r="IG19" s="58"/>
-      <c r="IH19" s="58"/>
-      <c r="II19" s="58"/>
-      <c r="IJ19" s="58"/>
-      <c r="IK19" s="58"/>
-      <c r="IL19" s="58"/>
-      <c r="IM19" s="58"/>
-      <c r="IN19" s="58"/>
-      <c r="IO19" s="58"/>
-      <c r="IP19" s="58"/>
-      <c r="IQ19" s="58"/>
-      <c r="IR19" s="58"/>
-      <c r="IS19" s="58"/>
-      <c r="IT19" s="58"/>
-      <c r="IU19" s="58"/>
-      <c r="IV19" s="58"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BR20" s="58"/>
-      <c r="BS20" s="58"/>
-      <c r="BT20" s="58"/>
-      <c r="BU20" s="58"/>
-      <c r="BV20" s="58"/>
-      <c r="BW20" s="58"/>
-      <c r="BX20" s="58"/>
-      <c r="BY20" s="58"/>
-      <c r="BZ20" s="58"/>
-      <c r="CA20" s="58"/>
-      <c r="CB20" s="58"/>
-      <c r="CC20" s="58"/>
-      <c r="CD20" s="58"/>
-      <c r="CE20" s="58"/>
-      <c r="CF20" s="58"/>
-      <c r="CG20" s="58"/>
-      <c r="CH20" s="58"/>
-      <c r="CI20" s="58"/>
-      <c r="CJ20" s="58"/>
-      <c r="CK20" s="58"/>
-      <c r="CL20" s="58"/>
-      <c r="CM20" s="58"/>
-      <c r="CN20" s="58"/>
-      <c r="CO20" s="58"/>
-      <c r="CP20" s="58"/>
-      <c r="CQ20" s="58"/>
-      <c r="CR20" s="58"/>
-      <c r="CS20" s="58"/>
-      <c r="CT20" s="58"/>
-      <c r="CU20" s="58"/>
-      <c r="CV20" s="58"/>
-      <c r="CW20" s="58"/>
-      <c r="CX20" s="58"/>
-      <c r="CY20" s="58"/>
-      <c r="CZ20" s="58"/>
-      <c r="DA20" s="58"/>
-      <c r="DB20" s="58"/>
-      <c r="DC20" s="58"/>
-      <c r="DD20" s="58"/>
-      <c r="DE20" s="58"/>
-      <c r="DF20" s="58"/>
-      <c r="DG20" s="58"/>
-      <c r="DH20" s="58"/>
-      <c r="DI20" s="58"/>
-      <c r="DJ20" s="58"/>
-      <c r="DK20" s="58"/>
-      <c r="DL20" s="58"/>
-      <c r="DM20" s="58"/>
-      <c r="DN20" s="58"/>
-      <c r="DO20" s="58"/>
-      <c r="DP20" s="58"/>
-      <c r="DQ20" s="58"/>
-      <c r="DR20" s="58"/>
-      <c r="DS20" s="58"/>
-      <c r="DT20" s="58"/>
-      <c r="DU20" s="58"/>
-      <c r="DV20" s="58"/>
-      <c r="DW20" s="58"/>
-      <c r="DX20" s="58"/>
-      <c r="DY20" s="58"/>
-      <c r="DZ20" s="58"/>
-      <c r="EA20" s="58"/>
-      <c r="EB20" s="58"/>
-      <c r="EC20" s="58"/>
-      <c r="ED20" s="58"/>
-      <c r="EE20" s="58"/>
-      <c r="EF20" s="58"/>
-      <c r="EG20" s="58"/>
-      <c r="EH20" s="58"/>
-      <c r="EI20" s="58"/>
-      <c r="EJ20" s="58"/>
-      <c r="EK20" s="58"/>
-      <c r="EL20" s="58"/>
-      <c r="EM20" s="58"/>
-      <c r="EN20" s="58"/>
-      <c r="EO20" s="58"/>
-      <c r="EP20" s="58"/>
-      <c r="EQ20" s="58"/>
-      <c r="ER20" s="58"/>
-      <c r="ES20" s="58"/>
-      <c r="ET20" s="58"/>
-      <c r="EU20" s="58"/>
-      <c r="EV20" s="58"/>
-      <c r="EW20" s="58"/>
-      <c r="EX20" s="58"/>
-      <c r="EY20" s="58"/>
-      <c r="EZ20" s="58"/>
-      <c r="FA20" s="58"/>
-      <c r="FB20" s="58"/>
-      <c r="FC20" s="58"/>
-      <c r="FD20" s="58"/>
-      <c r="FE20" s="58"/>
-      <c r="FF20" s="58"/>
-      <c r="FG20" s="58"/>
-      <c r="FH20" s="58"/>
-      <c r="FI20" s="58"/>
-      <c r="FJ20" s="58"/>
-      <c r="FK20" s="58"/>
-      <c r="FL20" s="58"/>
-      <c r="FM20" s="58"/>
-      <c r="FN20" s="58"/>
-      <c r="FO20" s="58"/>
-      <c r="FP20" s="58"/>
-      <c r="FQ20" s="58"/>
-      <c r="FR20" s="58"/>
-      <c r="FS20" s="58"/>
-      <c r="FT20" s="58"/>
-      <c r="FU20" s="58"/>
-      <c r="FV20" s="58"/>
-      <c r="FW20" s="58"/>
-      <c r="FX20" s="58"/>
-      <c r="FY20" s="58"/>
-      <c r="FZ20" s="58"/>
-      <c r="GA20" s="58"/>
-      <c r="GB20" s="58"/>
-      <c r="GC20" s="58"/>
-      <c r="GD20" s="58"/>
-      <c r="GE20" s="58"/>
-      <c r="GF20" s="58"/>
-      <c r="GG20" s="58"/>
-      <c r="GH20" s="58"/>
-      <c r="GI20" s="58"/>
-      <c r="GJ20" s="58"/>
-      <c r="GK20" s="58"/>
-      <c r="GL20" s="58"/>
-      <c r="GM20" s="58"/>
-      <c r="GN20" s="58"/>
-      <c r="GO20" s="58"/>
-      <c r="GP20" s="58"/>
-      <c r="GQ20" s="58"/>
-      <c r="GR20" s="58"/>
-      <c r="GS20" s="58"/>
-      <c r="GT20" s="58"/>
-      <c r="GU20" s="58"/>
-      <c r="GV20" s="58"/>
-      <c r="GW20" s="58"/>
-      <c r="GX20" s="58"/>
-      <c r="GY20" s="58"/>
-      <c r="GZ20" s="58"/>
-      <c r="HA20" s="58"/>
-      <c r="HB20" s="58"/>
-      <c r="HC20" s="58"/>
-      <c r="HD20" s="58"/>
-      <c r="HE20" s="58"/>
-      <c r="HF20" s="58"/>
-      <c r="HG20" s="58"/>
-      <c r="HH20" s="58"/>
-      <c r="HI20" s="58"/>
-      <c r="HJ20" s="58"/>
-      <c r="HK20" s="58"/>
-      <c r="HL20" s="58"/>
-      <c r="HM20" s="58"/>
-      <c r="HN20" s="58"/>
-      <c r="HO20" s="58"/>
-      <c r="HP20" s="58"/>
-      <c r="HQ20" s="58"/>
-      <c r="HR20" s="58"/>
-      <c r="HS20" s="58"/>
-      <c r="HT20" s="58"/>
-      <c r="HU20" s="58"/>
-      <c r="HV20" s="58"/>
-      <c r="HW20" s="58"/>
-      <c r="HX20" s="58"/>
-      <c r="HY20" s="58"/>
-      <c r="HZ20" s="58"/>
-      <c r="IA20" s="58"/>
-      <c r="IB20" s="58"/>
-      <c r="IC20" s="58"/>
-      <c r="ID20" s="58"/>
-      <c r="IE20" s="58"/>
-      <c r="IF20" s="58"/>
-      <c r="IG20" s="58"/>
-      <c r="IH20" s="58"/>
-      <c r="II20" s="58"/>
-      <c r="IJ20" s="58"/>
-      <c r="IK20" s="58"/>
-      <c r="IL20" s="58"/>
-      <c r="IM20" s="58"/>
-      <c r="IN20" s="58"/>
-      <c r="IO20" s="58"/>
-      <c r="IP20" s="58"/>
-      <c r="IQ20" s="58"/>
-      <c r="IR20" s="58"/>
-      <c r="IS20" s="58"/>
-      <c r="IT20" s="58"/>
-      <c r="IU20" s="58"/>
-      <c r="IV20" s="58"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="88" t="s">
-        <v>31</v>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="25" t="s">
+        <v>6</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="90"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="90"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="58"/>
-      <c r="BO21" s="58"/>
-      <c r="BP21" s="58"/>
-      <c r="BQ21" s="58"/>
-      <c r="BR21" s="58"/>
-      <c r="BS21" s="58"/>
-      <c r="BT21" s="58"/>
-      <c r="BU21" s="58"/>
-      <c r="BV21" s="58"/>
-      <c r="BW21" s="58"/>
-      <c r="BX21" s="58"/>
-      <c r="BY21" s="58"/>
-      <c r="BZ21" s="58"/>
-      <c r="CA21" s="58"/>
-      <c r="CB21" s="58"/>
-      <c r="CC21" s="58"/>
-      <c r="CD21" s="58"/>
-      <c r="CE21" s="58"/>
-      <c r="CF21" s="58"/>
-      <c r="CG21" s="58"/>
-      <c r="CH21" s="58"/>
-      <c r="CI21" s="58"/>
-      <c r="CJ21" s="58"/>
-      <c r="CK21" s="58"/>
-      <c r="CL21" s="58"/>
-      <c r="CM21" s="58"/>
-      <c r="CN21" s="58"/>
-      <c r="CO21" s="58"/>
-      <c r="CP21" s="58"/>
-      <c r="CQ21" s="58"/>
-      <c r="CR21" s="58"/>
-      <c r="CS21" s="58"/>
-      <c r="CT21" s="58"/>
-      <c r="CU21" s="58"/>
-      <c r="CV21" s="58"/>
-      <c r="CW21" s="58"/>
-      <c r="CX21" s="58"/>
-      <c r="CY21" s="58"/>
-      <c r="CZ21" s="58"/>
-      <c r="DA21" s="58"/>
-      <c r="DB21" s="58"/>
-      <c r="DC21" s="58"/>
-      <c r="DD21" s="58"/>
-      <c r="DE21" s="58"/>
-      <c r="DF21" s="58"/>
-      <c r="DG21" s="58"/>
-      <c r="DH21" s="58"/>
-      <c r="DI21" s="58"/>
-      <c r="DJ21" s="58"/>
-      <c r="DK21" s="58"/>
-      <c r="DL21" s="58"/>
-      <c r="DM21" s="58"/>
-      <c r="DN21" s="58"/>
-      <c r="DO21" s="58"/>
-      <c r="DP21" s="58"/>
-      <c r="DQ21" s="58"/>
-      <c r="DR21" s="58"/>
-      <c r="DS21" s="58"/>
-      <c r="DT21" s="58"/>
-      <c r="DU21" s="58"/>
-      <c r="DV21" s="58"/>
-      <c r="DW21" s="58"/>
-      <c r="DX21" s="58"/>
-      <c r="DY21" s="58"/>
-      <c r="DZ21" s="58"/>
-      <c r="EA21" s="58"/>
-      <c r="EB21" s="58"/>
-      <c r="EC21" s="58"/>
-      <c r="ED21" s="58"/>
-      <c r="EE21" s="58"/>
-      <c r="EF21" s="58"/>
-      <c r="EG21" s="58"/>
-      <c r="EH21" s="58"/>
-      <c r="EI21" s="58"/>
-      <c r="EJ21" s="58"/>
-      <c r="EK21" s="58"/>
-      <c r="EL21" s="58"/>
-      <c r="EM21" s="58"/>
-      <c r="EN21" s="58"/>
-      <c r="EO21" s="58"/>
-      <c r="EP21" s="58"/>
-      <c r="EQ21" s="58"/>
-      <c r="ER21" s="58"/>
-      <c r="ES21" s="58"/>
-      <c r="ET21" s="58"/>
-      <c r="EU21" s="58"/>
-      <c r="EV21" s="58"/>
-      <c r="EW21" s="58"/>
-      <c r="EX21" s="58"/>
-      <c r="EY21" s="58"/>
-      <c r="EZ21" s="58"/>
-      <c r="FA21" s="58"/>
-      <c r="FB21" s="58"/>
-      <c r="FC21" s="58"/>
-      <c r="FD21" s="58"/>
-      <c r="FE21" s="58"/>
-      <c r="FF21" s="58"/>
-      <c r="FG21" s="58"/>
-      <c r="FH21" s="58"/>
-      <c r="FI21" s="58"/>
-      <c r="FJ21" s="58"/>
-      <c r="FK21" s="58"/>
-      <c r="FL21" s="58"/>
-      <c r="FM21" s="58"/>
-      <c r="FN21" s="58"/>
-      <c r="FO21" s="58"/>
-      <c r="FP21" s="58"/>
-      <c r="FQ21" s="58"/>
-      <c r="FR21" s="58"/>
-      <c r="FS21" s="58"/>
-      <c r="FT21" s="58"/>
-      <c r="FU21" s="58"/>
-      <c r="FV21" s="58"/>
-      <c r="FW21" s="58"/>
-      <c r="FX21" s="58"/>
-      <c r="FY21" s="58"/>
-      <c r="FZ21" s="58"/>
-      <c r="GA21" s="58"/>
-      <c r="GB21" s="58"/>
-      <c r="GC21" s="58"/>
-      <c r="GD21" s="58"/>
-      <c r="GE21" s="58"/>
-      <c r="GF21" s="58"/>
-      <c r="GG21" s="58"/>
-      <c r="GH21" s="58"/>
-      <c r="GI21" s="58"/>
-      <c r="GJ21" s="58"/>
-      <c r="GK21" s="58"/>
-      <c r="GL21" s="58"/>
-      <c r="GM21" s="58"/>
-      <c r="GN21" s="58"/>
-      <c r="GO21" s="58"/>
-      <c r="GP21" s="58"/>
-      <c r="GQ21" s="58"/>
-      <c r="GR21" s="58"/>
-      <c r="GS21" s="58"/>
-      <c r="GT21" s="58"/>
-      <c r="GU21" s="58"/>
-      <c r="GV21" s="58"/>
-      <c r="GW21" s="58"/>
-      <c r="GX21" s="58"/>
-      <c r="GY21" s="58"/>
-      <c r="GZ21" s="58"/>
-      <c r="HA21" s="58"/>
-      <c r="HB21" s="58"/>
-      <c r="HC21" s="58"/>
-      <c r="HD21" s="58"/>
-      <c r="HE21" s="58"/>
-      <c r="HF21" s="58"/>
-      <c r="HG21" s="58"/>
-      <c r="HH21" s="58"/>
-      <c r="HI21" s="58"/>
-      <c r="HJ21" s="58"/>
-      <c r="HK21" s="58"/>
-      <c r="HL21" s="58"/>
-      <c r="HM21" s="58"/>
-      <c r="HN21" s="58"/>
-      <c r="HO21" s="58"/>
-      <c r="HP21" s="58"/>
-      <c r="HQ21" s="58"/>
-      <c r="HR21" s="58"/>
-      <c r="HS21" s="58"/>
-      <c r="HT21" s="58"/>
-      <c r="HU21" s="58"/>
-      <c r="HV21" s="58"/>
-      <c r="HW21" s="58"/>
-      <c r="HX21" s="58"/>
-      <c r="HY21" s="58"/>
-      <c r="HZ21" s="58"/>
-      <c r="IA21" s="58"/>
-      <c r="IB21" s="58"/>
-      <c r="IC21" s="58"/>
-      <c r="ID21" s="58"/>
-      <c r="IE21" s="58"/>
-      <c r="IF21" s="58"/>
-      <c r="IG21" s="58"/>
-      <c r="IH21" s="58"/>
-      <c r="II21" s="58"/>
-      <c r="IJ21" s="58"/>
-      <c r="IK21" s="58"/>
-      <c r="IL21" s="58"/>
-      <c r="IM21" s="58"/>
-      <c r="IN21" s="58"/>
-      <c r="IO21" s="58"/>
-      <c r="IP21" s="58"/>
-      <c r="IQ21" s="58"/>
-      <c r="IR21" s="58"/>
-      <c r="IS21" s="58"/>
-      <c r="IT21" s="58"/>
-      <c r="IU21" s="58"/>
-      <c r="IV21" s="58"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="58"/>
-      <c r="AX22" s="58"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="58"/>
-      <c r="BA22" s="58"/>
-      <c r="BB22" s="58"/>
-      <c r="BC22" s="58"/>
-      <c r="BD22" s="58"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="58"/>
-      <c r="BG22" s="58"/>
-      <c r="BH22" s="58"/>
-      <c r="BI22" s="58"/>
-      <c r="BJ22" s="58"/>
-      <c r="BK22" s="58"/>
-      <c r="BL22" s="58"/>
-      <c r="BM22" s="58"/>
-      <c r="BN22" s="58"/>
-      <c r="BO22" s="58"/>
-      <c r="BP22" s="58"/>
-      <c r="BQ22" s="58"/>
-      <c r="BR22" s="58"/>
-      <c r="BS22" s="58"/>
-      <c r="BT22" s="58"/>
-      <c r="BU22" s="58"/>
-      <c r="BV22" s="58"/>
-      <c r="BW22" s="58"/>
-      <c r="BX22" s="58"/>
-      <c r="BY22" s="58"/>
-      <c r="BZ22" s="58"/>
-      <c r="CA22" s="58"/>
-      <c r="CB22" s="58"/>
-      <c r="CC22" s="58"/>
-      <c r="CD22" s="58"/>
-      <c r="CE22" s="58"/>
-      <c r="CF22" s="58"/>
-      <c r="CG22" s="58"/>
-      <c r="CH22" s="58"/>
-      <c r="CI22" s="58"/>
-      <c r="CJ22" s="58"/>
-      <c r="CK22" s="58"/>
-      <c r="CL22" s="58"/>
-      <c r="CM22" s="58"/>
-      <c r="CN22" s="58"/>
-      <c r="CO22" s="58"/>
-      <c r="CP22" s="58"/>
-      <c r="CQ22" s="58"/>
-      <c r="CR22" s="58"/>
-      <c r="CS22" s="58"/>
-      <c r="CT22" s="58"/>
-      <c r="CU22" s="58"/>
-      <c r="CV22" s="58"/>
-      <c r="CW22" s="58"/>
-      <c r="CX22" s="58"/>
-      <c r="CY22" s="58"/>
-      <c r="CZ22" s="58"/>
-      <c r="DA22" s="58"/>
-      <c r="DB22" s="58"/>
-      <c r="DC22" s="58"/>
-      <c r="DD22" s="58"/>
-      <c r="DE22" s="58"/>
-      <c r="DF22" s="58"/>
-      <c r="DG22" s="58"/>
-      <c r="DH22" s="58"/>
-      <c r="DI22" s="58"/>
-      <c r="DJ22" s="58"/>
-      <c r="DK22" s="58"/>
-      <c r="DL22" s="58"/>
-      <c r="DM22" s="58"/>
-      <c r="DN22" s="58"/>
-      <c r="DO22" s="58"/>
-      <c r="DP22" s="58"/>
-      <c r="DQ22" s="58"/>
-      <c r="DR22" s="58"/>
-      <c r="DS22" s="58"/>
-      <c r="DT22" s="58"/>
-      <c r="DU22" s="58"/>
-      <c r="DV22" s="58"/>
-      <c r="DW22" s="58"/>
-      <c r="DX22" s="58"/>
-      <c r="DY22" s="58"/>
-      <c r="DZ22" s="58"/>
-      <c r="EA22" s="58"/>
-      <c r="EB22" s="58"/>
-      <c r="EC22" s="58"/>
-      <c r="ED22" s="58"/>
-      <c r="EE22" s="58"/>
-      <c r="EF22" s="58"/>
-      <c r="EG22" s="58"/>
-      <c r="EH22" s="58"/>
-      <c r="EI22" s="58"/>
-      <c r="EJ22" s="58"/>
-      <c r="EK22" s="58"/>
-      <c r="EL22" s="58"/>
-      <c r="EM22" s="58"/>
-      <c r="EN22" s="58"/>
-      <c r="EO22" s="58"/>
-      <c r="EP22" s="58"/>
-      <c r="EQ22" s="58"/>
-      <c r="ER22" s="58"/>
-      <c r="ES22" s="58"/>
-      <c r="ET22" s="58"/>
-      <c r="EU22" s="58"/>
-      <c r="EV22" s="58"/>
-      <c r="EW22" s="58"/>
-      <c r="EX22" s="58"/>
-      <c r="EY22" s="58"/>
-      <c r="EZ22" s="58"/>
-      <c r="FA22" s="58"/>
-      <c r="FB22" s="58"/>
-      <c r="FC22" s="58"/>
-      <c r="FD22" s="58"/>
-      <c r="FE22" s="58"/>
-      <c r="FF22" s="58"/>
-      <c r="FG22" s="58"/>
-      <c r="FH22" s="58"/>
-      <c r="FI22" s="58"/>
-      <c r="FJ22" s="58"/>
-      <c r="FK22" s="58"/>
-      <c r="FL22" s="58"/>
-      <c r="FM22" s="58"/>
-      <c r="FN22" s="58"/>
-      <c r="FO22" s="58"/>
-      <c r="FP22" s="58"/>
-      <c r="FQ22" s="58"/>
-      <c r="FR22" s="58"/>
-      <c r="FS22" s="58"/>
-      <c r="FT22" s="58"/>
-      <c r="FU22" s="58"/>
-      <c r="FV22" s="58"/>
-      <c r="FW22" s="58"/>
-      <c r="FX22" s="58"/>
-      <c r="FY22" s="58"/>
-      <c r="FZ22" s="58"/>
-      <c r="GA22" s="58"/>
-      <c r="GB22" s="58"/>
-      <c r="GC22" s="58"/>
-      <c r="GD22" s="58"/>
-      <c r="GE22" s="58"/>
-      <c r="GF22" s="58"/>
-      <c r="GG22" s="58"/>
-      <c r="GH22" s="58"/>
-      <c r="GI22" s="58"/>
-      <c r="GJ22" s="58"/>
-      <c r="GK22" s="58"/>
-      <c r="GL22" s="58"/>
-      <c r="GM22" s="58"/>
-      <c r="GN22" s="58"/>
-      <c r="GO22" s="58"/>
-      <c r="GP22" s="58"/>
-      <c r="GQ22" s="58"/>
-      <c r="GR22" s="58"/>
-      <c r="GS22" s="58"/>
-      <c r="GT22" s="58"/>
-      <c r="GU22" s="58"/>
-      <c r="GV22" s="58"/>
-      <c r="GW22" s="58"/>
-      <c r="GX22" s="58"/>
-      <c r="GY22" s="58"/>
-      <c r="GZ22" s="58"/>
-      <c r="HA22" s="58"/>
-      <c r="HB22" s="58"/>
-      <c r="HC22" s="58"/>
-      <c r="HD22" s="58"/>
-      <c r="HE22" s="58"/>
-      <c r="HF22" s="58"/>
-      <c r="HG22" s="58"/>
-      <c r="HH22" s="58"/>
-      <c r="HI22" s="58"/>
-      <c r="HJ22" s="58"/>
-      <c r="HK22" s="58"/>
-      <c r="HL22" s="58"/>
-      <c r="HM22" s="58"/>
-      <c r="HN22" s="58"/>
-      <c r="HO22" s="58"/>
-      <c r="HP22" s="58"/>
-      <c r="HQ22" s="58"/>
-      <c r="HR22" s="58"/>
-      <c r="HS22" s="58"/>
-      <c r="HT22" s="58"/>
-      <c r="HU22" s="58"/>
-      <c r="HV22" s="58"/>
-      <c r="HW22" s="58"/>
-      <c r="HX22" s="58"/>
-      <c r="HY22" s="58"/>
-      <c r="HZ22" s="58"/>
-      <c r="IA22" s="58"/>
-      <c r="IB22" s="58"/>
-      <c r="IC22" s="58"/>
-      <c r="ID22" s="58"/>
-      <c r="IE22" s="58"/>
-      <c r="IF22" s="58"/>
-      <c r="IG22" s="58"/>
-      <c r="IH22" s="58"/>
-      <c r="II22" s="58"/>
-      <c r="IJ22" s="58"/>
-      <c r="IK22" s="58"/>
-      <c r="IL22" s="58"/>
-      <c r="IM22" s="58"/>
-      <c r="IN22" s="58"/>
-      <c r="IO22" s="58"/>
-      <c r="IP22" s="58"/>
-      <c r="IQ22" s="58"/>
-      <c r="IR22" s="58"/>
-      <c r="IS22" s="58"/>
-      <c r="IT22" s="58"/>
-      <c r="IU22" s="58"/>
-      <c r="IV22" s="58"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="104"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="107" t="s">
-        <v>34</v>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="31" t="s">
+        <v>8</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="45"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="45"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="90"/>
-      <c r="H38" s="93"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="32"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="45"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="118"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="104"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" ht="12.75" customHeight="1"/>
     <row r="86" ht="12.75" customHeight="1"/>
